--- a/xlsx/a69_f02_aUPPachuca.xlsx
+++ b/xlsx/a69_f02_aUPPachuca.xlsx
@@ -5,24 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\UPP Solventación 1er Trimestre 21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\2do Trimestre SIPOT 2021\Recepción 2do Trimestre\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20355" windowHeight="6990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Reporte de Formatos'!$A$7:$O$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Reporte de Formatos'!$A$7:$O$7</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="177">
   <si>
     <t>43962</t>
   </si>
@@ -958,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L6" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,17 +979,17 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="60.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="111.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="55.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="66.140625" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" customWidth="1"/>
+    <col min="6" max="6" width="60.5703125" customWidth="1"/>
+    <col min="7" max="7" width="33.85546875" customWidth="1"/>
+    <col min="8" max="8" width="111.5703125" customWidth="1"/>
+    <col min="9" max="9" width="55.140625" customWidth="1"/>
+    <col min="10" max="10" width="87.140625" customWidth="1"/>
     <col min="11" max="11" width="47.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="73.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="40.5703125" customWidth="1"/>
+    <col min="12" max="12" width="73.140625" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" customWidth="1"/>
+    <col min="14" max="14" width="20" customWidth="1"/>
+    <col min="15" max="15" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -1185,10 +1196,10 @@
         <v>2021</v>
       </c>
       <c r="B8" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C8" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>45</v>
@@ -1218,22 +1229,22 @@
         <v>164</v>
       </c>
       <c r="M8" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N8" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2021</v>
       </c>
       <c r="B9" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C9" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>47</v>
@@ -1257,28 +1268,30 @@
         <v>163</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>164</v>
       </c>
       <c r="M9" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N9" s="2">
-        <v>44298</v>
-      </c>
-      <c r="O9" s="3"/>
+        <v>44386</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="10" spans="1:15" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2021</v>
       </c>
       <c r="B10" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C10" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>49</v>
@@ -1308,10 +1321,10 @@
         <v>164</v>
       </c>
       <c r="M10" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N10" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="O10" s="3"/>
     </row>
@@ -1320,10 +1333,10 @@
         <v>2021</v>
       </c>
       <c r="B11" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C11" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>61</v>
@@ -1353,10 +1366,10 @@
         <v>164</v>
       </c>
       <c r="M11" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N11" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="O11" s="3"/>
     </row>
@@ -1365,10 +1378,10 @@
         <v>2021</v>
       </c>
       <c r="B12" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C12" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>51</v>
@@ -1398,10 +1411,10 @@
         <v>164</v>
       </c>
       <c r="M12" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N12" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="O12" s="3"/>
     </row>
@@ -1410,10 +1423,10 @@
         <v>2021</v>
       </c>
       <c r="B13" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C13" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>54</v>
@@ -1443,10 +1456,10 @@
         <v>164</v>
       </c>
       <c r="M13" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N13" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="O13" s="3"/>
     </row>
@@ -1455,10 +1468,10 @@
         <v>2021</v>
       </c>
       <c r="B14" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C14" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>56</v>
@@ -1488,10 +1501,10 @@
         <v>164</v>
       </c>
       <c r="M14" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N14" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="O14" s="3"/>
     </row>
@@ -1500,10 +1513,10 @@
         <v>2021</v>
       </c>
       <c r="B15" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C15" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>57</v>
@@ -1533,10 +1546,10 @@
         <v>164</v>
       </c>
       <c r="M15" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N15" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="O15" s="3"/>
     </row>
@@ -1545,10 +1558,10 @@
         <v>2021</v>
       </c>
       <c r="B16" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C16" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>59</v>
@@ -1578,10 +1591,10 @@
         <v>164</v>
       </c>
       <c r="M16" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N16" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="O16" s="3"/>
     </row>
@@ -1590,10 +1603,10 @@
         <v>2021</v>
       </c>
       <c r="B17" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C17" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>63</v>
@@ -1617,18 +1630,18 @@
         <v>163</v>
       </c>
       <c r="K17" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>164</v>
       </c>
       <c r="M17" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N17" s="2">
-        <v>44298</v>
-      </c>
-      <c r="O17" s="11" t="s">
+        <v>44386</v>
+      </c>
+      <c r="O17" s="5" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1637,10 +1650,10 @@
         <v>2021</v>
       </c>
       <c r="B18" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C18" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>65</v>
@@ -1670,10 +1683,10 @@
         <v>164</v>
       </c>
       <c r="M18" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N18" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="O18" s="3"/>
     </row>
@@ -1682,10 +1695,10 @@
         <v>2021</v>
       </c>
       <c r="B19" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C19" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>67</v>
@@ -1715,12 +1728,12 @@
         <v>164</v>
       </c>
       <c r="M19" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N19" s="2">
-        <v>44298</v>
-      </c>
-      <c r="O19" s="11" t="s">
+        <v>44386</v>
+      </c>
+      <c r="O19" s="5" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1729,10 +1742,10 @@
         <v>2021</v>
       </c>
       <c r="B20" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C20" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>70</v>
@@ -1762,12 +1775,12 @@
         <v>164</v>
       </c>
       <c r="M20" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N20" s="2">
-        <v>44298</v>
-      </c>
-      <c r="O20" s="11" t="s">
+        <v>44386</v>
+      </c>
+      <c r="O20" s="5" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1776,10 +1789,10 @@
         <v>2021</v>
       </c>
       <c r="B21" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C21" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>72</v>
@@ -1803,18 +1816,18 @@
         <v>163</v>
       </c>
       <c r="K21" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>164</v>
       </c>
       <c r="M21" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N21" s="2">
-        <v>44298</v>
-      </c>
-      <c r="O21" s="11" t="s">
+        <v>44386</v>
+      </c>
+      <c r="O21" s="5" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1823,10 +1836,10 @@
         <v>2021</v>
       </c>
       <c r="B22" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C22" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>74</v>
@@ -1856,12 +1869,12 @@
         <v>164</v>
       </c>
       <c r="M22" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N22" s="2">
-        <v>44298</v>
-      </c>
-      <c r="O22" s="11" t="s">
+        <v>44386</v>
+      </c>
+      <c r="O22" s="5" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1870,10 +1883,10 @@
         <v>2021</v>
       </c>
       <c r="B23" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C23" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>76</v>
@@ -1903,12 +1916,12 @@
         <v>164</v>
       </c>
       <c r="M23" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N23" s="2">
-        <v>44298</v>
-      </c>
-      <c r="O23" s="11" t="s">
+        <v>44386</v>
+      </c>
+      <c r="O23" s="5" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1917,10 +1930,10 @@
         <v>2021</v>
       </c>
       <c r="B24" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C24" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>78</v>
@@ -1950,12 +1963,12 @@
         <v>164</v>
       </c>
       <c r="M24" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N24" s="2">
-        <v>44298</v>
-      </c>
-      <c r="O24" s="11" t="s">
+        <v>44386</v>
+      </c>
+      <c r="O24" s="5" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1964,10 +1977,10 @@
         <v>2021</v>
       </c>
       <c r="B25" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C25" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>80</v>
@@ -1997,12 +2010,12 @@
         <v>164</v>
       </c>
       <c r="M25" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N25" s="2">
-        <v>44298</v>
-      </c>
-      <c r="O25" s="11" t="s">
+        <v>44386</v>
+      </c>
+      <c r="O25" s="5" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2011,10 +2024,10 @@
         <v>2021</v>
       </c>
       <c r="B26" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C26" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>82</v>
@@ -2044,12 +2057,12 @@
         <v>164</v>
       </c>
       <c r="M26" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N26" s="2">
-        <v>44298</v>
-      </c>
-      <c r="O26" s="11" t="s">
+        <v>44386</v>
+      </c>
+      <c r="O26" s="5" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2058,10 +2071,10 @@
         <v>2021</v>
       </c>
       <c r="B27" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C27" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>84</v>
@@ -2091,10 +2104,10 @@
         <v>164</v>
       </c>
       <c r="M27" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N27" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="O27" s="3"/>
     </row>
@@ -2103,10 +2116,10 @@
         <v>2021</v>
       </c>
       <c r="B28" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C28" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>45</v>
@@ -2136,10 +2149,10 @@
         <v>164</v>
       </c>
       <c r="M28" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N28" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="O28" s="3"/>
     </row>
@@ -2148,10 +2161,10 @@
         <v>2021</v>
       </c>
       <c r="B29" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C29" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>59</v>
@@ -2181,10 +2194,10 @@
         <v>164</v>
       </c>
       <c r="M29" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N29" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="O29" s="3"/>
     </row>
@@ -2193,10 +2206,10 @@
         <v>2021</v>
       </c>
       <c r="B30" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C30" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>47</v>
@@ -2226,10 +2239,10 @@
         <v>164</v>
       </c>
       <c r="M30" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N30" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="O30" s="3"/>
     </row>
@@ -2238,10 +2251,10 @@
         <v>2021</v>
       </c>
       <c r="B31" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C31" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>63</v>
@@ -2271,10 +2284,10 @@
         <v>164</v>
       </c>
       <c r="M31" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N31" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="O31" s="3"/>
     </row>
@@ -2283,10 +2296,10 @@
         <v>2021</v>
       </c>
       <c r="B32" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C32" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>63</v>
@@ -2316,10 +2329,10 @@
         <v>164</v>
       </c>
       <c r="M32" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N32" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="O32" s="3"/>
     </row>
@@ -2328,10 +2341,10 @@
         <v>2021</v>
       </c>
       <c r="B33" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C33" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>63</v>
@@ -2361,10 +2374,10 @@
         <v>164</v>
       </c>
       <c r="M33" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N33" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="O33" s="3"/>
     </row>
@@ -2373,10 +2386,10 @@
         <v>2021</v>
       </c>
       <c r="B34" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C34" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>63</v>
@@ -2406,10 +2419,10 @@
         <v>164</v>
       </c>
       <c r="M34" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N34" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="O34" s="3"/>
     </row>
@@ -2418,10 +2431,10 @@
         <v>2021</v>
       </c>
       <c r="B35" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C35" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>49</v>
@@ -2451,10 +2464,10 @@
         <v>164</v>
       </c>
       <c r="M35" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N35" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="O35" s="3"/>
     </row>
@@ -2463,10 +2476,10 @@
         <v>2021</v>
       </c>
       <c r="B36" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C36" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>65</v>
@@ -2496,10 +2509,10 @@
         <v>164</v>
       </c>
       <c r="M36" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N36" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="O36" s="3"/>
     </row>
@@ -2508,10 +2521,10 @@
         <v>2021</v>
       </c>
       <c r="B37" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C37" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>65</v>
@@ -2541,10 +2554,10 @@
         <v>164</v>
       </c>
       <c r="M37" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N37" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="O37" s="3"/>
     </row>
@@ -2553,10 +2566,10 @@
         <v>2021</v>
       </c>
       <c r="B38" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C38" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>45</v>
@@ -2586,10 +2599,10 @@
         <v>164</v>
       </c>
       <c r="M38" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N38" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="O38" s="3"/>
     </row>
@@ -2598,10 +2611,10 @@
         <v>2021</v>
       </c>
       <c r="B39" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C39" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>45</v>
@@ -2631,10 +2644,10 @@
         <v>164</v>
       </c>
       <c r="M39" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N39" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="O39" s="3"/>
     </row>
@@ -2643,10 +2656,10 @@
         <v>2021</v>
       </c>
       <c r="B40" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C40" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>54</v>
@@ -2676,10 +2689,10 @@
         <v>164</v>
       </c>
       <c r="M40" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N40" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="O40" s="3"/>
     </row>
@@ -2688,10 +2701,10 @@
         <v>2021</v>
       </c>
       <c r="B41" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C41" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>56</v>
@@ -2721,10 +2734,10 @@
         <v>164</v>
       </c>
       <c r="M41" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N41" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="O41" s="3"/>
     </row>
@@ -2733,10 +2746,10 @@
         <v>2021</v>
       </c>
       <c r="B42" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C42" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>57</v>
@@ -2766,10 +2779,10 @@
         <v>164</v>
       </c>
       <c r="M42" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N42" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="O42" s="3"/>
     </row>
@@ -2778,10 +2791,10 @@
         <v>2021</v>
       </c>
       <c r="B43" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C43" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>47</v>
@@ -2811,10 +2824,10 @@
         <v>164</v>
       </c>
       <c r="M43" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N43" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="O43" s="3"/>
     </row>
@@ -2823,10 +2836,10 @@
         <v>2021</v>
       </c>
       <c r="B44" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C44" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>47</v>
@@ -2856,12 +2869,12 @@
         <v>164</v>
       </c>
       <c r="M44" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N44" s="2">
-        <v>44298</v>
-      </c>
-      <c r="O44" s="11" t="s">
+        <v>44386</v>
+      </c>
+      <c r="O44" s="5" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2870,10 +2883,10 @@
         <v>2021</v>
       </c>
       <c r="B45" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C45" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>47</v>
@@ -2903,10 +2916,10 @@
         <v>164</v>
       </c>
       <c r="M45" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N45" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="O45" s="3"/>
     </row>
@@ -2915,10 +2928,10 @@
         <v>2021</v>
       </c>
       <c r="B46" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C46" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>47</v>
@@ -2948,10 +2961,10 @@
         <v>164</v>
       </c>
       <c r="M46" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N46" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="O46" s="3"/>
     </row>
@@ -2960,10 +2973,10 @@
         <v>2021</v>
       </c>
       <c r="B47" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C47" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>47</v>
@@ -2993,10 +3006,10 @@
         <v>164</v>
       </c>
       <c r="M47" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N47" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="O47" s="3"/>
     </row>
@@ -3005,10 +3018,10 @@
         <v>2021</v>
       </c>
       <c r="B48" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C48" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>47</v>
@@ -3038,10 +3051,10 @@
         <v>164</v>
       </c>
       <c r="M48" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N48" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="O48" s="3"/>
     </row>
@@ -3050,10 +3063,10 @@
         <v>2021</v>
       </c>
       <c r="B49" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C49" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>63</v>
@@ -3083,10 +3096,10 @@
         <v>164</v>
       </c>
       <c r="M49" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N49" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="O49" s="3"/>
     </row>
@@ -3095,10 +3108,10 @@
         <v>2021</v>
       </c>
       <c r="B50" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C50" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>63</v>
@@ -3128,10 +3141,10 @@
         <v>164</v>
       </c>
       <c r="M50" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N50" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="O50" s="3"/>
     </row>
@@ -3140,10 +3153,10 @@
         <v>2021</v>
       </c>
       <c r="B51" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C51" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>49</v>
@@ -3173,10 +3186,10 @@
         <v>164</v>
       </c>
       <c r="M51" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N51" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="O51" s="3"/>
     </row>
@@ -3185,10 +3198,10 @@
         <v>2021</v>
       </c>
       <c r="B52" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C52" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>49</v>
@@ -3218,10 +3231,10 @@
         <v>164</v>
       </c>
       <c r="M52" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N52" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="O52" s="3"/>
     </row>
@@ -3230,10 +3243,10 @@
         <v>2021</v>
       </c>
       <c r="B53" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C53" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>49</v>
@@ -3263,10 +3276,10 @@
         <v>164</v>
       </c>
       <c r="M53" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N53" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="O53" s="3"/>
     </row>
@@ -3275,10 +3288,10 @@
         <v>2021</v>
       </c>
       <c r="B54" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C54" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>49</v>
@@ -3308,10 +3321,10 @@
         <v>164</v>
       </c>
       <c r="M54" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N54" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="O54" s="3"/>
     </row>
@@ -3320,10 +3333,10 @@
         <v>2021</v>
       </c>
       <c r="B55" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C55" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>49</v>
@@ -3353,10 +3366,10 @@
         <v>164</v>
       </c>
       <c r="M55" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N55" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="O55" s="3"/>
     </row>
@@ -3365,10 +3378,10 @@
         <v>2021</v>
       </c>
       <c r="B56" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C56" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>49</v>
@@ -3398,10 +3411,10 @@
         <v>164</v>
       </c>
       <c r="M56" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N56" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="O56" s="3"/>
     </row>
@@ -3410,10 +3423,10 @@
         <v>2021</v>
       </c>
       <c r="B57" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C57" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>49</v>
@@ -3443,10 +3456,10 @@
         <v>164</v>
       </c>
       <c r="M57" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N57" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="O57" s="3"/>
     </row>
@@ -3455,10 +3468,10 @@
         <v>2021</v>
       </c>
       <c r="B58" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C58" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>49</v>
@@ -3488,10 +3501,10 @@
         <v>164</v>
       </c>
       <c r="M58" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N58" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="O58" s="3"/>
     </row>
@@ -3500,10 +3513,10 @@
         <v>2021</v>
       </c>
       <c r="B59" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C59" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>65</v>
@@ -3533,10 +3546,10 @@
         <v>164</v>
       </c>
       <c r="M59" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N59" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="O59" s="3"/>
     </row>
@@ -3545,10 +3558,10 @@
         <v>2021</v>
       </c>
       <c r="B60" s="2">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C60" s="2">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>65</v>
@@ -3578,10 +3591,10 @@
         <v>164</v>
       </c>
       <c r="M60" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="N60" s="2">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="O60" s="3"/>
     </row>

--- a/xlsx/a69_f02_aUPPachuca.xlsx
+++ b/xlsx/a69_f02_aUPPachuca.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\Vo. Bo. 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Reporte de Formatos'!$A$7:$O$60</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="179">
   <si>
     <t>43962</t>
   </si>
@@ -333,9 +336,6 @@
     <t>Coordinación del Centro de Patentamiento</t>
   </si>
   <si>
-    <t>Encargado de la Coordinación del Centro de Patentamiento</t>
-  </si>
-  <si>
     <t>Subdirección de Comunicación Social</t>
   </si>
   <si>
@@ -483,6 +483,9 @@
     <t>Departamento de Educación a Distancia</t>
   </si>
   <si>
+    <t>Encargada de Departamento de Educación a Distancia</t>
+  </si>
+  <si>
     <t>Departamento de Incubación de Empresas</t>
   </si>
   <si>
@@ -549,7 +552,13 @@
     <t>Jefa de Departamento de Evaluación y Estadísticas</t>
   </si>
   <si>
-    <t>Encargada de Departamento de Educación a Distancia</t>
+    <t>Subdirector de Área</t>
+  </si>
+  <si>
+    <t>Subdirector de la Coordinación del Centro de Patentamiento</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento C</t>
   </si>
 </sst>
 </file>
@@ -644,10 +653,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -659,14 +668,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -951,26 +960,26 @@
   <dimension ref="A1:O60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
-    <col min="5" max="5" width="34" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="60.5703125" customWidth="1"/>
     <col min="7" max="7" width="33.85546875" customWidth="1"/>
     <col min="8" max="8" width="111.5703125" customWidth="1"/>
     <col min="9" max="9" width="55.140625" customWidth="1"/>
-    <col min="10" max="10" width="80.5703125" customWidth="1"/>
-    <col min="11" max="11" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="60.5703125" customWidth="1"/>
+    <col min="11" max="11" width="47.140625" customWidth="1"/>
     <col min="12" max="12" width="73.140625" customWidth="1"/>
     <col min="13" max="13" width="17.5703125" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
-    <col min="15" max="15" width="32" customWidth="1"/>
+    <col min="15" max="15" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -979,38 +988,38 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1107,23 +1116,23 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
     </row>
     <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1172,15 +1181,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B8" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C8" s="2">
-        <v>44469</v>
+    <row r="8" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44561</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>45</v>
@@ -1203,29 +1212,29 @@
       <c r="J8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="2">
         <v>0</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M8" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N8" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O8" s="7"/>
+      <c r="M8" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N8" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O8" s="10"/>
     </row>
     <row r="9" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B9" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C9" s="2">
-        <v>44469</v>
+      <c r="A9" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C9" s="3">
+        <v>44561</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>52</v>
@@ -1248,31 +1257,31 @@
       <c r="J9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <v>1</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M9" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N9" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="M9" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N9" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O9" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B10" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C10" s="2">
-        <v>44469</v>
+    <row r="10" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C10" s="3">
+        <v>44561</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>56</v>
@@ -1295,29 +1304,31 @@
       <c r="J10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
+      <c r="K10" s="2">
+        <v>4</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M10" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N10" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O10" s="7"/>
-    </row>
-    <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B11" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C11" s="2">
-        <v>44469</v>
+      <c r="M10" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N10" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44561</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>59</v>
@@ -1340,29 +1351,29 @@
       <c r="J11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="2">
         <v>0</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M11" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N11" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O11" s="7"/>
-    </row>
-    <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B12" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C12" s="2">
-        <v>44469</v>
+      <c r="M11" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N11" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O11" s="10"/>
+    </row>
+    <row r="12" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C12" s="3">
+        <v>44561</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>64</v>
@@ -1385,29 +1396,29 @@
       <c r="J12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="2">
         <v>0</v>
       </c>
       <c r="L12" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M12" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N12" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O12" s="7"/>
-    </row>
-    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B13" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C13" s="2">
-        <v>44469</v>
+      <c r="M12" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N12" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O12" s="10"/>
+    </row>
+    <row r="13" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C13" s="3">
+        <v>44561</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>67</v>
@@ -1430,29 +1441,29 @@
       <c r="J13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="2">
         <v>0</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M13" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N13" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O13" s="7"/>
-    </row>
-    <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B14" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C14" s="2">
-        <v>44469</v>
+      <c r="M13" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N13" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O13" s="10"/>
+    </row>
+    <row r="14" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C14" s="3">
+        <v>44561</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>70</v>
@@ -1475,29 +1486,29 @@
       <c r="J14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="2">
         <v>0</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M14" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N14" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O14" s="7"/>
-    </row>
-    <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B15" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C15" s="2">
-        <v>44469</v>
+      <c r="M14" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N14" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O14" s="10"/>
+    </row>
+    <row r="15" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B15" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C15" s="3">
+        <v>44561</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>72</v>
@@ -1520,29 +1531,29 @@
       <c r="J15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="2">
         <v>0</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M15" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N15" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O15" s="7"/>
-    </row>
-    <row r="16" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B16" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C16" s="2">
-        <v>44469</v>
+      <c r="M15" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N15" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O15" s="10"/>
+    </row>
+    <row r="16" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C16" s="3">
+        <v>44561</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>75</v>
@@ -1565,29 +1576,29 @@
       <c r="J16" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="2">
         <v>0</v>
       </c>
       <c r="L16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M16" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N16" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O16" s="7"/>
+      <c r="M16" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N16" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O16" s="10"/>
     </row>
     <row r="17" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B17" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C17" s="2">
-        <v>44469</v>
+      <c r="A17" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C17" s="3">
+        <v>44561</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>78</v>
@@ -1610,31 +1621,31 @@
       <c r="J17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="2">
         <v>1</v>
       </c>
       <c r="L17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M17" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N17" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="M17" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N17" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O17" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B18" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C18" s="2">
-        <v>44469</v>
+    <row r="18" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B18" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C18" s="3">
+        <v>44561</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>81</v>
@@ -1657,29 +1668,29 @@
       <c r="J18" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="2">
         <v>0</v>
       </c>
       <c r="L18" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M18" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N18" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O18" s="7"/>
+      <c r="M18" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N18" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O18" s="10"/>
     </row>
     <row r="19" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B19" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C19" s="2">
-        <v>44469</v>
+      <c r="A19" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B19" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C19" s="3">
+        <v>44561</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>84</v>
@@ -1702,31 +1713,31 @@
       <c r="J19" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="2">
         <v>4</v>
       </c>
       <c r="L19" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M19" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N19" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="M19" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N19" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O19" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B20" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C20" s="2">
-        <v>44469</v>
+      <c r="A20" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B20" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C20" s="3">
+        <v>44561</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>87</v>
@@ -1749,31 +1760,31 @@
       <c r="J20" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="2">
         <v>6</v>
       </c>
       <c r="L20" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M20" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N20" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="M20" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N20" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O20" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B21" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C21" s="2">
-        <v>44469</v>
+      <c r="A21" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B21" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C21" s="3">
+        <v>44561</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>89</v>
@@ -1796,31 +1807,31 @@
       <c r="J21" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="2">
         <v>5</v>
       </c>
       <c r="L21" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M21" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N21" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O21" s="7" t="s">
+      <c r="M21" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N21" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O21" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B22" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C22" s="2">
-        <v>44469</v>
+      <c r="A22" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C22" s="3">
+        <v>44561</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>91</v>
@@ -1843,31 +1854,31 @@
       <c r="J22" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="2">
         <v>3</v>
       </c>
       <c r="L22" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M22" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N22" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="M22" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N22" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O22" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B23" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C23" s="2">
-        <v>44469</v>
+      <c r="A23" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B23" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C23" s="3">
+        <v>44561</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>93</v>
@@ -1890,31 +1901,31 @@
       <c r="J23" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="2">
         <v>1</v>
       </c>
       <c r="L23" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M23" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N23" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O23" s="7" t="s">
+      <c r="M23" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N23" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O23" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B24" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C24" s="2">
-        <v>44469</v>
+      <c r="A24" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B24" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C24" s="3">
+        <v>44561</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>95</v>
@@ -1937,31 +1948,31 @@
       <c r="J24" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="2">
         <v>4</v>
       </c>
       <c r="L24" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M24" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N24" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="M24" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N24" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O24" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B25" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C25" s="2">
-        <v>44469</v>
+      <c r="A25" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B25" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C25" s="3">
+        <v>44561</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>97</v>
@@ -1984,31 +1995,31 @@
       <c r="J25" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="2">
         <v>5</v>
       </c>
       <c r="L25" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M25" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N25" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="M25" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N25" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O25" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B26" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C26" s="2">
-        <v>44469</v>
+      <c r="A26" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B26" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C26" s="3">
+        <v>44561</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>99</v>
@@ -2031,31 +2042,31 @@
       <c r="J26" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="2">
         <v>3</v>
       </c>
       <c r="L26" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M26" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N26" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="M26" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N26" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O26" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B27" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C27" s="2">
-        <v>44469</v>
+    <row r="27" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B27" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C27" s="3">
+        <v>44561</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>101</v>
@@ -2078,38 +2089,38 @@
       <c r="J27" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="2">
         <v>0</v>
       </c>
       <c r="L27" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M27" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N27" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O27" s="7"/>
-    </row>
-    <row r="28" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B28" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C28" s="2">
-        <v>44469</v>
+      <c r="M27" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N27" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O27" s="10"/>
+    </row>
+    <row r="28" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B28" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C28" s="3">
+        <v>44561</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>103</v>
+        <v>176</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>104</v>
+        <v>177</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>47</v>
@@ -2123,443 +2134,443 @@
       <c r="J28" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="2">
         <v>0</v>
       </c>
       <c r="L28" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M28" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N28" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O28" s="7"/>
+      <c r="M28" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N28" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O28" s="10"/>
     </row>
     <row r="29" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B29" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C29" s="2">
-        <v>44469</v>
+      <c r="A29" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B29" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C29" s="3">
+        <v>44561</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="E29" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="G29" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="H29" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M29" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N29" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O29" s="10"/>
+    </row>
+    <row r="30" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B30" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C30" s="3">
+        <v>44561</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M29" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N29" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O29" s="7"/>
-    </row>
-    <row r="30" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B30" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C30" s="2">
-        <v>44469</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="E30" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="G30" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="H30" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M30" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N30" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O30" s="10"/>
+    </row>
+    <row r="31" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B31" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C31" s="3">
+        <v>44561</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="H30" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K30" s="3">
-        <v>0</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M30" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N30" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O30" s="7"/>
-    </row>
-    <row r="31" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B31" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C31" s="2">
-        <v>44469</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="E31" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="H31" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M31" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N31" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O31" s="10"/>
+    </row>
+    <row r="32" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B32" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C32" s="3">
+        <v>44561</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H31" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K31" s="3">
-        <v>0</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M31" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N31" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O31" s="7"/>
-    </row>
-    <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B32" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C32" s="2">
-        <v>44469</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="E32" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="G32" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M32" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N32" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O32" s="10"/>
+    </row>
+    <row r="33" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B33" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C33" s="3">
+        <v>44561</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M32" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N32" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O32" s="7"/>
-    </row>
-    <row r="33" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B33" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C33" s="2">
-        <v>44469</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="E33" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="G33" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M33" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N33" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O33" s="10"/>
+    </row>
+    <row r="34" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B34" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C34" s="3">
+        <v>44561</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M33" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N33" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O33" s="7"/>
-    </row>
-    <row r="34" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B34" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C34" s="2">
-        <v>44469</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="E34" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="G34" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M34" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N34" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O34" s="10"/>
+    </row>
+    <row r="35" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B35" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C35" s="3">
+        <v>44561</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K34" s="3">
-        <v>0</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M34" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N34" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O34" s="7"/>
-    </row>
-    <row r="35" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B35" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C35" s="2">
-        <v>44469</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="E35" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="G35" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="H35" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M35" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N35" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O35" s="10"/>
+    </row>
+    <row r="36" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B36" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C36" s="3">
+        <v>44561</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="H35" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M35" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N35" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O35" s="7"/>
-    </row>
-    <row r="36" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B36" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C36" s="2">
-        <v>44469</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="E36" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="G36" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="H36" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M36" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N36" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O36" s="10"/>
+    </row>
+    <row r="37" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B37" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C37" s="3">
+        <v>44561</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H36" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K36" s="3">
-        <v>0</v>
-      </c>
-      <c r="L36" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M36" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N36" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O36" s="7"/>
-    </row>
-    <row r="37" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B37" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C37" s="2">
-        <v>44469</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="E37" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="G37" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M37" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N37" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O37" s="10"/>
+    </row>
+    <row r="38" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B38" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C38" s="3">
+        <v>44561</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K37" s="3">
-        <v>0</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M37" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N37" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O37" s="7"/>
-    </row>
-    <row r="38" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B38" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C38" s="2">
-        <v>44469</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="E38" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>47</v>
@@ -2573,38 +2584,38 @@
       <c r="J38" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K38" s="2">
         <v>0</v>
       </c>
       <c r="L38" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M38" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N38" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O38" s="7"/>
-    </row>
-    <row r="39" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B39" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C39" s="2">
-        <v>44469</v>
+      <c r="M38" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N38" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O38" s="10"/>
+    </row>
+    <row r="39" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B39" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C39" s="3">
+        <v>44561</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="E39" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>47</v>
@@ -2618,173 +2629,173 @@
       <c r="J39" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K39" s="3">
+      <c r="K39" s="2">
         <v>0</v>
       </c>
       <c r="L39" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M39" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N39" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O39" s="7"/>
-    </row>
-    <row r="40" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B40" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C40" s="2">
-        <v>44469</v>
+      <c r="M39" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N39" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O39" s="10"/>
+    </row>
+    <row r="40" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B40" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C40" s="3">
+        <v>44561</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="E40" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="G40" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="H40" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K40" s="2">
+        <v>0</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M40" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N40" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O40" s="10"/>
+    </row>
+    <row r="41" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B41" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C41" s="3">
+        <v>44561</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="H40" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K40" s="3">
-        <v>0</v>
-      </c>
-      <c r="L40" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M40" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N40" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O40" s="7"/>
-    </row>
-    <row r="41" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B41" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C41" s="2">
-        <v>44469</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="E41" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="G41" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="H41" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K41" s="2">
+        <v>0</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M41" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N41" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O41" s="10"/>
+    </row>
+    <row r="42" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B42" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C42" s="3">
+        <v>44561</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="H41" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M41" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N41" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O41" s="7"/>
-    </row>
-    <row r="42" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B42" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C42" s="2">
-        <v>44469</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="E42" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="G42" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="H42" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M42" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N42" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O42" s="10"/>
+    </row>
+    <row r="43" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B43" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C43" s="3">
+        <v>44561</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H42" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M42" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N42" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O42" s="7"/>
-    </row>
-    <row r="43" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B43" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C43" s="2">
-        <v>44469</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="E43" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>62</v>
@@ -2798,38 +2809,38 @@
       <c r="J43" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="2">
         <v>0</v>
       </c>
       <c r="L43" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M43" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N43" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O43" s="7"/>
+      <c r="M43" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N43" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O43" s="10"/>
     </row>
     <row r="44" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B44" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C44" s="2">
-        <v>44469</v>
+      <c r="A44" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B44" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C44" s="3">
+        <v>44561</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="E44" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>62</v>
@@ -2843,223 +2854,223 @@
       <c r="J44" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="2">
         <v>5</v>
       </c>
       <c r="L44" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M44" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N44" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O44" s="7" t="s">
+      <c r="M44" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N44" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O44" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B45" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C45" s="2">
-        <v>44469</v>
+    <row r="45" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B45" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C45" s="3">
+        <v>44561</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="E45" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="G45" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M45" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N45" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O45" s="10"/>
+    </row>
+    <row r="46" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B46" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C46" s="3">
+        <v>44561</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G45" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J45" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M45" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N45" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O45" s="7"/>
-    </row>
-    <row r="46" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B46" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C46" s="2">
-        <v>44469</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="E46" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="G46" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M46" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N46" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O46" s="10"/>
+    </row>
+    <row r="47" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B47" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C47" s="3">
+        <v>44561</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G46" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M46" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N46" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O46" s="7"/>
-    </row>
-    <row r="47" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B47" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C47" s="2">
-        <v>44469</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="E47" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="G47" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M47" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N47" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O47" s="10"/>
+    </row>
+    <row r="48" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B48" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C48" s="3">
+        <v>44561</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="G47" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M47" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N47" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O47" s="7"/>
-    </row>
-    <row r="48" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B48" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C48" s="2">
-        <v>44469</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="E48" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="G48" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K48" s="2">
+        <v>0</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M48" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N48" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O48" s="10"/>
+    </row>
+    <row r="49" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B49" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C49" s="3">
+        <v>44561</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="G48" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M48" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N48" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O48" s="7"/>
-    </row>
-    <row r="49" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B49" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C49" s="2">
-        <v>44469</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="E49" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F49" s="4" t="s">
-        <v>176</v>
-      </c>
       <c r="G49" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>80</v>
@@ -3070,41 +3081,41 @@
       <c r="J49" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="2">
         <v>0</v>
       </c>
       <c r="L49" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M49" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N49" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O49" s="7"/>
-    </row>
-    <row r="50" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B50" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C50" s="2">
-        <v>44469</v>
+      <c r="M49" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N49" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O49" s="10"/>
+    </row>
+    <row r="50" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B50" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C50" s="3">
+        <v>44561</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>155</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>80</v>
@@ -3115,41 +3126,41 @@
       <c r="J50" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K50" s="3">
+      <c r="K50" s="2">
         <v>0</v>
       </c>
       <c r="L50" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M50" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N50" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O50" s="7"/>
-    </row>
-    <row r="51" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B51" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C51" s="2">
-        <v>44469</v>
+      <c r="M50" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N50" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O50" s="10"/>
+    </row>
+    <row r="51" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B51" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C51" s="3">
+        <v>44561</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>157</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>80</v>
@@ -3160,41 +3171,41 @@
       <c r="J51" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K51" s="3">
+      <c r="K51" s="2">
         <v>0</v>
       </c>
       <c r="L51" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M51" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N51" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O51" s="7"/>
-    </row>
-    <row r="52" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B52" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C52" s="2">
-        <v>44469</v>
+      <c r="M51" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N51" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O51" s="10"/>
+    </row>
+    <row r="52" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B52" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C52" s="3">
+        <v>44561</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>56</v>
+        <v>158</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>159</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>80</v>
@@ -3205,41 +3216,41 @@
       <c r="J52" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="2">
         <v>0</v>
       </c>
       <c r="L52" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M52" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N52" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O52" s="7"/>
-    </row>
-    <row r="53" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B53" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C53" s="2">
-        <v>44469</v>
+      <c r="M52" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N52" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O52" s="10"/>
+    </row>
+    <row r="53" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B53" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C53" s="3">
+        <v>44561</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>56</v>
+        <v>160</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>161</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>80</v>
@@ -3250,41 +3261,41 @@
       <c r="J53" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K53" s="3">
+      <c r="K53" s="2">
         <v>0</v>
       </c>
       <c r="L53" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M53" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N53" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O53" s="7"/>
-    </row>
-    <row r="54" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B54" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C54" s="2">
-        <v>44469</v>
+      <c r="M53" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N53" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O53" s="10"/>
+    </row>
+    <row r="54" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B54" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C54" s="3">
+        <v>44561</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>56</v>
+        <v>162</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>163</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>80</v>
@@ -3295,41 +3306,41 @@
       <c r="J54" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="2">
         <v>0</v>
       </c>
       <c r="L54" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M54" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N54" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O54" s="7"/>
-    </row>
-    <row r="55" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B55" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C55" s="2">
-        <v>44469</v>
+      <c r="M54" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N54" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O54" s="10"/>
+    </row>
+    <row r="55" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B55" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C55" s="3">
+        <v>44561</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>56</v>
+        <v>164</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>165</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>80</v>
@@ -3340,41 +3351,41 @@
       <c r="J55" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K55" s="3">
+      <c r="K55" s="2">
         <v>0</v>
       </c>
       <c r="L55" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M55" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N55" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O55" s="7"/>
-    </row>
-    <row r="56" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B56" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C56" s="2">
-        <v>44469</v>
+      <c r="M55" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N55" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O55" s="10"/>
+    </row>
+    <row r="56" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B56" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C56" s="3">
+        <v>44561</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>56</v>
+        <v>166</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>167</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>80</v>
@@ -3385,41 +3396,41 @@
       <c r="J56" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K56" s="3">
+      <c r="K56" s="2">
         <v>0</v>
       </c>
       <c r="L56" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M56" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N56" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O56" s="7"/>
-    </row>
-    <row r="57" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B57" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C57" s="2">
-        <v>44469</v>
+      <c r="M56" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N56" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O56" s="10"/>
+    </row>
+    <row r="57" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B57" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C57" s="3">
+        <v>44561</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>56</v>
+        <v>168</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>169</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>80</v>
@@ -3430,41 +3441,41 @@
       <c r="J57" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="2">
         <v>0</v>
       </c>
       <c r="L57" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M57" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N57" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O57" s="7"/>
-    </row>
-    <row r="58" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B58" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C58" s="2">
-        <v>44469</v>
+      <c r="M57" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N57" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O57" s="10"/>
+    </row>
+    <row r="58" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B58" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C58" s="3">
+        <v>44561</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>56</v>
+        <v>170</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>171</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>80</v>
@@ -3475,41 +3486,41 @@
       <c r="J58" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="2">
         <v>0</v>
       </c>
       <c r="L58" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M58" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N58" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O58" s="7"/>
-    </row>
-    <row r="59" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B59" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C59" s="2">
-        <v>44469</v>
+      <c r="M58" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N58" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O58" s="10"/>
+    </row>
+    <row r="59" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B59" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C59" s="3">
+        <v>44561</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>173</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>80</v>
@@ -3520,41 +3531,41 @@
       <c r="J59" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="2">
         <v>0</v>
       </c>
       <c r="L59" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M59" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N59" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O59" s="7"/>
-    </row>
-    <row r="60" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B60" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C60" s="2">
-        <v>44469</v>
+      <c r="M59" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N59" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O59" s="10"/>
+    </row>
+    <row r="60" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B60" s="3">
+        <v>44470</v>
+      </c>
+      <c r="C60" s="3">
+        <v>44561</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>175</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>80</v>
@@ -3565,19 +3576,19 @@
       <c r="J60" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="2">
         <v>0</v>
       </c>
       <c r="L60" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M60" s="2">
-        <v>44480</v>
-      </c>
-      <c r="N60" s="2">
-        <v>44480</v>
-      </c>
-      <c r="O60" s="7"/>
+      <c r="M60" s="3">
+        <v>44571</v>
+      </c>
+      <c r="N60" s="3">
+        <v>44571</v>
+      </c>
+      <c r="O60" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/xlsx/a69_f02_aUPPachuca.xlsx
+++ b/xlsx/a69_f02_aUPPachuca.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dirección de Planeción\2022\SIPOT\UPP 2DO TRI 2022\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7650"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="180">
   <si>
     <t>43962</t>
   </si>
@@ -553,7 +558,7 @@
     <t>Artículos 27 y 79 del Estatuto Orgánico de la Universidad Politécnica de Pachuca</t>
   </si>
   <si>
-    <t>La plaza del Titular del Órgano Interno de Control, se pago hasta el 15 de enero, por lo que dejó de pertenecer a la Estructura de la Universidad y pasó a la Secretaría de Contraloría.</t>
+    <t>La plaza del Titular del Órgano Interno de Control, dejó de pertenecer a la Estructura de la Universidad, y pasó a la Secretaría de Contraloría a partir del 16 de enero 2022.</t>
   </si>
 </sst>
 </file>
@@ -645,7 +650,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -665,18 +670,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -950,7 +967,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -960,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M2" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="L2" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,7 +997,7 @@
     <col min="12" max="12" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="95.42578125" customWidth="1"/>
+    <col min="15" max="15" width="65" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -989,38 +1006,38 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="10" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1117,23 +1134,23 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
     </row>
     <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1187,10 +1204,10 @@
         <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C8" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>46</v>
@@ -1220,22 +1237,22 @@
         <v>45</v>
       </c>
       <c r="M8" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N8" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O8" s="8"/>
+        <v>44753</v>
+      </c>
+      <c r="O8" s="7"/>
     </row>
     <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2022</v>
       </c>
       <c r="B9" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C9" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>52</v>
@@ -1265,12 +1282,12 @@
         <v>45</v>
       </c>
       <c r="M9" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N9" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O9" s="8" t="s">
+        <v>44753</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1279,10 +1296,10 @@
         <v>2022</v>
       </c>
       <c r="B10" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C10" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>55</v>
@@ -1306,30 +1323,28 @@
         <v>51</v>
       </c>
       <c r="K10" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="M10" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N10" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>175</v>
-      </c>
+        <v>44753</v>
+      </c>
+      <c r="O10" s="7"/>
     </row>
     <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2022</v>
       </c>
       <c r="B11" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C11" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>58</v>
@@ -1359,57 +1374,57 @@
         <v>45</v>
       </c>
       <c r="M11" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N11" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O11" s="8"/>
-    </row>
-    <row r="12" spans="1:15" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B12" s="3">
-        <v>44562</v>
-      </c>
-      <c r="C12" s="3">
-        <v>44651</v>
-      </c>
-      <c r="D12" s="4" t="s">
+        <v>44753</v>
+      </c>
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="1:15" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B12" s="9">
+        <v>44652</v>
+      </c>
+      <c r="C12" s="9">
+        <v>44742</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K12" s="2">
+      <c r="I12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="8">
         <v>0</v>
       </c>
       <c r="L12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="M12" s="3">
-        <v>44659</v>
-      </c>
-      <c r="N12" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O12" s="9" t="s">
+      <c r="M12" s="9">
+        <v>44753</v>
+      </c>
+      <c r="N12" s="9">
+        <v>44753</v>
+      </c>
+      <c r="O12" s="16" t="s">
         <v>179</v>
       </c>
     </row>
@@ -1418,10 +1433,10 @@
         <v>2022</v>
       </c>
       <c r="B13" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C13" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>63</v>
@@ -1451,22 +1466,22 @@
         <v>45</v>
       </c>
       <c r="M13" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N13" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O13" s="8"/>
+        <v>44753</v>
+      </c>
+      <c r="O13" s="7"/>
     </row>
     <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2022</v>
       </c>
       <c r="B14" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C14" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>66</v>
@@ -1496,22 +1511,22 @@
         <v>45</v>
       </c>
       <c r="M14" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N14" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O14" s="8"/>
+        <v>44753</v>
+      </c>
+      <c r="O14" s="7"/>
     </row>
     <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2022</v>
       </c>
       <c r="B15" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C15" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>68</v>
@@ -1541,22 +1556,22 @@
         <v>45</v>
       </c>
       <c r="M15" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N15" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O15" s="8"/>
+        <v>44753</v>
+      </c>
+      <c r="O15" s="7"/>
     </row>
     <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2022</v>
       </c>
       <c r="B16" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C16" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>71</v>
@@ -1586,22 +1601,22 @@
         <v>45</v>
       </c>
       <c r="M16" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N16" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O16" s="8"/>
+        <v>44753</v>
+      </c>
+      <c r="O16" s="7"/>
     </row>
     <row r="17" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2022</v>
       </c>
       <c r="B17" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C17" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>74</v>
@@ -1631,12 +1646,12 @@
         <v>45</v>
       </c>
       <c r="M17" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N17" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O17" s="8" t="s">
+        <v>44753</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1645,10 +1660,10 @@
         <v>2022</v>
       </c>
       <c r="B18" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C18" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>77</v>
@@ -1678,22 +1693,22 @@
         <v>45</v>
       </c>
       <c r="M18" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N18" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O18" s="8"/>
+        <v>44753</v>
+      </c>
+      <c r="O18" s="7"/>
     </row>
     <row r="19" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2022</v>
       </c>
       <c r="B19" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C19" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>80</v>
@@ -1717,30 +1732,28 @@
         <v>51</v>
       </c>
       <c r="K19" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L19" s="6" t="s">
         <v>45</v>
       </c>
       <c r="M19" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N19" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O19" s="8" t="s">
-        <v>175</v>
-      </c>
+        <v>44753</v>
+      </c>
+      <c r="O19" s="7"/>
     </row>
     <row r="20" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>2022</v>
       </c>
       <c r="B20" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C20" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>83</v>
@@ -1764,30 +1777,28 @@
         <v>51</v>
       </c>
       <c r="K20" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L20" s="6" t="s">
         <v>45</v>
       </c>
       <c r="M20" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N20" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O20" s="8" t="s">
-        <v>175</v>
-      </c>
+        <v>44753</v>
+      </c>
+      <c r="O20" s="7"/>
     </row>
     <row r="21" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2022</v>
       </c>
       <c r="B21" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C21" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>85</v>
@@ -1811,30 +1822,28 @@
         <v>51</v>
       </c>
       <c r="K21" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L21" s="6" t="s">
         <v>45</v>
       </c>
       <c r="M21" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N21" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O21" s="8" t="s">
-        <v>175</v>
-      </c>
+        <v>44753</v>
+      </c>
+      <c r="O21" s="7"/>
     </row>
     <row r="22" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>2022</v>
       </c>
       <c r="B22" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C22" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>87</v>
@@ -1858,30 +1867,28 @@
         <v>51</v>
       </c>
       <c r="K22" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L22" s="6" t="s">
         <v>45</v>
       </c>
       <c r="M22" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N22" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O22" s="8" t="s">
-        <v>175</v>
-      </c>
+        <v>44753</v>
+      </c>
+      <c r="O22" s="7"/>
     </row>
     <row r="23" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2022</v>
       </c>
       <c r="B23" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C23" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>89</v>
@@ -1905,30 +1912,28 @@
         <v>51</v>
       </c>
       <c r="K23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="6" t="s">
         <v>45</v>
       </c>
       <c r="M23" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N23" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O23" s="8" t="s">
-        <v>175</v>
-      </c>
+        <v>44753</v>
+      </c>
+      <c r="O23" s="7"/>
     </row>
     <row r="24" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>2022</v>
       </c>
       <c r="B24" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C24" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>91</v>
@@ -1952,30 +1957,28 @@
         <v>51</v>
       </c>
       <c r="K24" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L24" s="6" t="s">
         <v>45</v>
       </c>
       <c r="M24" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N24" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O24" s="8" t="s">
-        <v>175</v>
-      </c>
+        <v>44753</v>
+      </c>
+      <c r="O24" s="7"/>
     </row>
     <row r="25" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>2022</v>
       </c>
       <c r="B25" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C25" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>93</v>
@@ -1999,30 +2002,28 @@
         <v>51</v>
       </c>
       <c r="K25" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L25" s="6" t="s">
         <v>45</v>
       </c>
       <c r="M25" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N25" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O25" s="8" t="s">
-        <v>175</v>
-      </c>
+        <v>44753</v>
+      </c>
+      <c r="O25" s="7"/>
     </row>
     <row r="26" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>2022</v>
       </c>
       <c r="B26" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C26" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>95</v>
@@ -2046,30 +2047,28 @@
         <v>51</v>
       </c>
       <c r="K26" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L26" s="6" t="s">
         <v>45</v>
       </c>
       <c r="M26" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N26" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O26" s="8" t="s">
-        <v>175</v>
-      </c>
+        <v>44753</v>
+      </c>
+      <c r="O26" s="7"/>
     </row>
     <row r="27" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>2022</v>
       </c>
       <c r="B27" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C27" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>97</v>
@@ -2093,30 +2092,28 @@
         <v>51</v>
       </c>
       <c r="K27" s="2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L27" s="6" t="s">
         <v>45</v>
       </c>
       <c r="M27" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N27" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O27" s="8" t="s">
-        <v>175</v>
-      </c>
+        <v>44753</v>
+      </c>
+      <c r="O27" s="7"/>
     </row>
     <row r="28" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2022</v>
       </c>
       <c r="B28" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C28" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>99</v>
@@ -2146,22 +2143,22 @@
         <v>45</v>
       </c>
       <c r="M28" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N28" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O28" s="8"/>
+        <v>44753</v>
+      </c>
+      <c r="O28" s="7"/>
     </row>
     <row r="29" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>2022</v>
       </c>
       <c r="B29" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C29" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>102</v>
@@ -2191,22 +2188,22 @@
         <v>45</v>
       </c>
       <c r="M29" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N29" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O29" s="8"/>
+        <v>44753</v>
+      </c>
+      <c r="O29" s="7"/>
     </row>
     <row r="30" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2022</v>
       </c>
       <c r="B30" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C30" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>105</v>
@@ -2236,22 +2233,22 @@
         <v>45</v>
       </c>
       <c r="M30" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N30" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O30" s="8"/>
+        <v>44753</v>
+      </c>
+      <c r="O30" s="7"/>
     </row>
     <row r="31" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>2022</v>
       </c>
       <c r="B31" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C31" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>108</v>
@@ -2281,22 +2278,22 @@
         <v>45</v>
       </c>
       <c r="M31" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N31" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O31" s="8"/>
+        <v>44753</v>
+      </c>
+      <c r="O31" s="7"/>
     </row>
     <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>2022</v>
       </c>
       <c r="B32" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C32" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>111</v>
@@ -2326,22 +2323,22 @@
         <v>45</v>
       </c>
       <c r="M32" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N32" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O32" s="8"/>
+        <v>44753</v>
+      </c>
+      <c r="O32" s="7"/>
     </row>
     <row r="33" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>2022</v>
       </c>
       <c r="B33" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C33" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>113</v>
@@ -2371,22 +2368,22 @@
         <v>45</v>
       </c>
       <c r="M33" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N33" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O33" s="8"/>
+        <v>44753</v>
+      </c>
+      <c r="O33" s="7"/>
     </row>
     <row r="34" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>2022</v>
       </c>
       <c r="B34" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C34" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>115</v>
@@ -2416,22 +2413,22 @@
         <v>45</v>
       </c>
       <c r="M34" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N34" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O34" s="8"/>
+        <v>44753</v>
+      </c>
+      <c r="O34" s="7"/>
     </row>
     <row r="35" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>2022</v>
       </c>
       <c r="B35" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C35" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>117</v>
@@ -2461,22 +2458,22 @@
         <v>45</v>
       </c>
       <c r="M35" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N35" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O35" s="8"/>
+        <v>44753</v>
+      </c>
+      <c r="O35" s="7"/>
     </row>
     <row r="36" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>2022</v>
       </c>
       <c r="B36" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C36" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>120</v>
@@ -2506,22 +2503,22 @@
         <v>45</v>
       </c>
       <c r="M36" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N36" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O36" s="8"/>
+        <v>44753</v>
+      </c>
+      <c r="O36" s="7"/>
     </row>
     <row r="37" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>2022</v>
       </c>
       <c r="B37" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C37" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>123</v>
@@ -2551,22 +2548,22 @@
         <v>45</v>
       </c>
       <c r="M37" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N37" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O37" s="8"/>
+        <v>44753</v>
+      </c>
+      <c r="O37" s="7"/>
     </row>
     <row r="38" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>2022</v>
       </c>
       <c r="B38" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C38" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>125</v>
@@ -2596,22 +2593,22 @@
         <v>45</v>
       </c>
       <c r="M38" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N38" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O38" s="8"/>
+        <v>44753</v>
+      </c>
+      <c r="O38" s="7"/>
     </row>
     <row r="39" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>2022</v>
       </c>
       <c r="B39" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C39" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>128</v>
@@ -2641,22 +2638,22 @@
         <v>45</v>
       </c>
       <c r="M39" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N39" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O39" s="8"/>
+        <v>44753</v>
+      </c>
+      <c r="O39" s="7"/>
     </row>
     <row r="40" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>2022</v>
       </c>
       <c r="B40" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C40" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>130</v>
@@ -2686,22 +2683,22 @@
         <v>45</v>
       </c>
       <c r="M40" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N40" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O40" s="8"/>
+        <v>44753</v>
+      </c>
+      <c r="O40" s="7"/>
     </row>
     <row r="41" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>2022</v>
       </c>
       <c r="B41" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C41" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>133</v>
@@ -2731,22 +2728,22 @@
         <v>45</v>
       </c>
       <c r="M41" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N41" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O41" s="8"/>
+        <v>44753</v>
+      </c>
+      <c r="O41" s="7"/>
     </row>
     <row r="42" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>2022</v>
       </c>
       <c r="B42" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C42" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>136</v>
@@ -2776,22 +2773,22 @@
         <v>45</v>
       </c>
       <c r="M42" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N42" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O42" s="8"/>
+        <v>44753</v>
+      </c>
+      <c r="O42" s="7"/>
     </row>
     <row r="43" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>2022</v>
       </c>
       <c r="B43" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C43" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>139</v>
@@ -2821,22 +2818,22 @@
         <v>45</v>
       </c>
       <c r="M43" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N43" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O43" s="8"/>
+        <v>44753</v>
+      </c>
+      <c r="O43" s="7"/>
     </row>
     <row r="44" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>2022</v>
       </c>
       <c r="B44" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C44" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>141</v>
@@ -2860,30 +2857,28 @@
         <v>51</v>
       </c>
       <c r="K44" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L44" s="6" t="s">
         <v>45</v>
       </c>
       <c r="M44" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N44" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O44" s="8" t="s">
-        <v>175</v>
-      </c>
+        <v>44753</v>
+      </c>
+      <c r="O44" s="7"/>
     </row>
     <row r="45" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>2022</v>
       </c>
       <c r="B45" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C45" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>143</v>
@@ -2913,22 +2908,22 @@
         <v>45</v>
       </c>
       <c r="M45" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N45" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O45" s="8"/>
+        <v>44753</v>
+      </c>
+      <c r="O45" s="7"/>
     </row>
     <row r="46" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>2022</v>
       </c>
       <c r="B46" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C46" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>145</v>
@@ -2958,22 +2953,22 @@
         <v>45</v>
       </c>
       <c r="M46" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N46" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O46" s="8"/>
+        <v>44753</v>
+      </c>
+      <c r="O46" s="7"/>
     </row>
     <row r="47" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>2022</v>
       </c>
       <c r="B47" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C47" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>147</v>
@@ -3003,22 +2998,22 @@
         <v>45</v>
       </c>
       <c r="M47" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N47" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O47" s="8"/>
+        <v>44753</v>
+      </c>
+      <c r="O47" s="7"/>
     </row>
     <row r="48" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>2022</v>
       </c>
       <c r="B48" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C48" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>149</v>
@@ -3048,22 +3043,22 @@
         <v>45</v>
       </c>
       <c r="M48" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N48" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O48" s="8"/>
+        <v>44753</v>
+      </c>
+      <c r="O48" s="7"/>
     </row>
     <row r="49" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>2022</v>
       </c>
       <c r="B49" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C49" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>151</v>
@@ -3093,22 +3088,22 @@
         <v>45</v>
       </c>
       <c r="M49" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N49" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O49" s="8"/>
+        <v>44753</v>
+      </c>
+      <c r="O49" s="7"/>
     </row>
     <row r="50" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>2022</v>
       </c>
       <c r="B50" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C50" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>153</v>
@@ -3138,22 +3133,22 @@
         <v>45</v>
       </c>
       <c r="M50" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N50" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O50" s="8"/>
+        <v>44753</v>
+      </c>
+      <c r="O50" s="7"/>
     </row>
     <row r="51" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>2022</v>
       </c>
       <c r="B51" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C51" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>155</v>
@@ -3183,22 +3178,22 @@
         <v>45</v>
       </c>
       <c r="M51" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N51" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O51" s="8"/>
+        <v>44753</v>
+      </c>
+      <c r="O51" s="7"/>
     </row>
     <row r="52" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>2022</v>
       </c>
       <c r="B52" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C52" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>157</v>
@@ -3228,22 +3223,22 @@
         <v>45</v>
       </c>
       <c r="M52" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N52" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O52" s="8"/>
+        <v>44753</v>
+      </c>
+      <c r="O52" s="7"/>
     </row>
     <row r="53" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>2022</v>
       </c>
       <c r="B53" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C53" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>159</v>
@@ -3273,22 +3268,22 @@
         <v>45</v>
       </c>
       <c r="M53" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N53" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O53" s="8"/>
+        <v>44753</v>
+      </c>
+      <c r="O53" s="7"/>
     </row>
     <row r="54" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>2022</v>
       </c>
       <c r="B54" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C54" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>161</v>
@@ -3318,22 +3313,22 @@
         <v>45</v>
       </c>
       <c r="M54" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N54" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O54" s="8"/>
+        <v>44753</v>
+      </c>
+      <c r="O54" s="7"/>
     </row>
     <row r="55" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>2022</v>
       </c>
       <c r="B55" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C55" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>163</v>
@@ -3363,22 +3358,22 @@
         <v>45</v>
       </c>
       <c r="M55" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N55" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O55" s="8"/>
+        <v>44753</v>
+      </c>
+      <c r="O55" s="7"/>
     </row>
     <row r="56" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>2022</v>
       </c>
       <c r="B56" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C56" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>165</v>
@@ -3408,22 +3403,22 @@
         <v>45</v>
       </c>
       <c r="M56" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N56" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O56" s="8"/>
+        <v>44753</v>
+      </c>
+      <c r="O56" s="7"/>
     </row>
     <row r="57" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>2022</v>
       </c>
       <c r="B57" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C57" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>167</v>
@@ -3453,22 +3448,22 @@
         <v>45</v>
       </c>
       <c r="M57" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N57" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O57" s="8"/>
+        <v>44753</v>
+      </c>
+      <c r="O57" s="7"/>
     </row>
     <row r="58" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>2022</v>
       </c>
       <c r="B58" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C58" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>169</v>
@@ -3498,22 +3493,22 @@
         <v>45</v>
       </c>
       <c r="M58" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N58" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O58" s="8"/>
+        <v>44753</v>
+      </c>
+      <c r="O58" s="7"/>
     </row>
     <row r="59" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>2022</v>
       </c>
       <c r="B59" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C59" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>171</v>
@@ -3543,22 +3538,22 @@
         <v>45</v>
       </c>
       <c r="M59" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N59" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O59" s="8"/>
+        <v>44753</v>
+      </c>
+      <c r="O59" s="7"/>
     </row>
     <row r="60" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>2022</v>
       </c>
       <c r="B60" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C60" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>173</v>
@@ -3588,12 +3583,12 @@
         <v>45</v>
       </c>
       <c r="M60" s="3">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="N60" s="3">
-        <v>44659</v>
-      </c>
-      <c r="O60" s="8"/>
+        <v>44753</v>
+      </c>
+      <c r="O60" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/xlsx/a69_f02_aUPPachuca.xlsx
+++ b/xlsx/a69_f02_aUPPachuca.xlsx
@@ -5,21 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dirección de Planeción\2022\SIPOT\UPP 2DO TRI 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sala5\Documents\UPP Solvetacion de Observaciones 1er  Vo. Bo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="179">
   <si>
     <t>43962</t>
   </si>
@@ -156,9 +156,6 @@
     <t>Nota</t>
   </si>
   <si>
-    <t>Recursos Humanos (UPP)</t>
-  </si>
-  <si>
     <t>Rectoría</t>
   </si>
   <si>
@@ -210,6 +207,15 @@
     <t>Artículos 27 y 31 del Estatuto Orgánico de la Universidad Politécnica de Pachuca</t>
   </si>
   <si>
+    <t>Órgano Interno de Control</t>
+  </si>
+  <si>
+    <t>Titular del Órgano Interno de Control</t>
+  </si>
+  <si>
+    <t>Artículos 27 y 79 del Estatuto Orgánico de la Universidad Politécnica de Pachuca</t>
+  </si>
+  <si>
     <t>Dirección de Vinculación y Extensión</t>
   </si>
   <si>
@@ -546,26 +552,17 @@
     <t>Jefa de Departamento de Evaluación y Estadísticas</t>
   </si>
   <si>
-    <t>Los prestadores de servicios profesionales no forman parte de la estructura orgánica de la institución.</t>
-  </si>
-  <si>
-    <t>Órgano Interno de Control</t>
-  </si>
-  <si>
-    <t>Titular del Órgano Interno de Control</t>
-  </si>
-  <si>
-    <t>Artículos 27 y 79 del Estatuto Orgánico de la Universidad Politécnica de Pachuca</t>
-  </si>
-  <si>
     <t>La plaza del Titular del Órgano Interno de Control, dejó de pertenecer a la Estructura de la Universidad, y pasó a la Secretaría de Contraloría a partir del 16 de enero 2022.</t>
+  </si>
+  <si>
+    <t>Departamento de Recursos Humanos (UPP)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -594,8 +591,14 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -619,7 +622,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -642,6 +645,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -650,7 +664,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -667,33 +681,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -977,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L2" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,18 +988,18 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" customWidth="1"/>
     <col min="6" max="6" width="60.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.140625" customWidth="1"/>
+    <col min="7" max="7" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="111.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="55.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="87.7109375" customWidth="1"/>
+    <col min="10" max="10" width="93.5703125" customWidth="1"/>
     <col min="11" max="11" width="47.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="65" customWidth="1"/>
+    <col min="15" max="15" width="58.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -1006,38 +1008,38 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="13" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="13" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1134,23 +1136,23 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
     </row>
     <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1204,228 +1206,226 @@
         <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C8" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="I8" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
       </c>
-      <c r="L8" s="6" t="s">
-        <v>45</v>
+      <c r="L8" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M8" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N8" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O8" s="7"/>
+        <v>44844</v>
+      </c>
+      <c r="O8" s="6"/>
     </row>
     <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2022</v>
       </c>
       <c r="B9" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C9" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="I9" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K9" s="2">
-        <v>1</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>45</v>
+        <v>0</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M9" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N9" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>175</v>
-      </c>
+        <v>44844</v>
+      </c>
+      <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2022</v>
       </c>
       <c r="B10" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C10" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="I10" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
       </c>
-      <c r="L10" s="6" t="s">
-        <v>45</v>
+      <c r="L10" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M10" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N10" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O10" s="7"/>
+        <v>44844</v>
+      </c>
+      <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2022</v>
       </c>
       <c r="B11" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C11" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="M11" s="3">
+        <v>44844</v>
+      </c>
+      <c r="N11" s="3">
+        <v>44844</v>
+      </c>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44743</v>
+      </c>
+      <c r="C12" s="3">
+        <v>44834</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M11" s="3">
-        <v>44753</v>
-      </c>
-      <c r="N11" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O11" s="7"/>
-    </row>
-    <row r="12" spans="1:15" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>2022</v>
-      </c>
-      <c r="B12" s="9">
-        <v>44652</v>
-      </c>
-      <c r="C12" s="9">
-        <v>44742</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="10" t="s">
+      <c r="E12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="M12" s="3">
+        <v>44844</v>
+      </c>
+      <c r="N12" s="3">
+        <v>44844</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="K12" s="8">
-        <v>0</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M12" s="9">
-        <v>44753</v>
-      </c>
-      <c r="N12" s="9">
-        <v>44753</v>
-      </c>
-      <c r="O12" s="16" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
@@ -1433,2162 +1433,2160 @@
         <v>2022</v>
       </c>
       <c r="B13" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C13" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
       </c>
-      <c r="L13" s="6" t="s">
-        <v>45</v>
+      <c r="L13" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M13" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N13" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O13" s="7"/>
+        <v>44844</v>
+      </c>
+      <c r="O13" s="6"/>
     </row>
     <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2022</v>
       </c>
       <c r="B14" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C14" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
       </c>
-      <c r="L14" s="6" t="s">
-        <v>45</v>
+      <c r="L14" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M14" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N14" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O14" s="7"/>
+        <v>44844</v>
+      </c>
+      <c r="O14" s="6"/>
     </row>
     <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2022</v>
       </c>
       <c r="B15" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C15" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
       </c>
-      <c r="L15" s="6" t="s">
-        <v>45</v>
+      <c r="L15" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M15" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N15" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O15" s="7"/>
-    </row>
-    <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+        <v>44844</v>
+      </c>
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2022</v>
       </c>
       <c r="B16" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C16" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
       </c>
-      <c r="L16" s="6" t="s">
-        <v>45</v>
+      <c r="L16" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M16" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N16" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O16" s="7"/>
-    </row>
-    <row r="17" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+        <v>44844</v>
+      </c>
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2022</v>
       </c>
       <c r="B17" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C17" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K17" s="2">
-        <v>1</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>45</v>
+        <v>0</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M17" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N17" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>175</v>
-      </c>
+        <v>44844</v>
+      </c>
+      <c r="O17" s="8"/>
     </row>
     <row r="18" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2022</v>
       </c>
       <c r="B18" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C18" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K18" s="2">
         <v>0</v>
       </c>
-      <c r="L18" s="6" t="s">
-        <v>45</v>
+      <c r="L18" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M18" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N18" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O18" s="7"/>
+        <v>44844</v>
+      </c>
+      <c r="O18" s="6"/>
     </row>
     <row r="19" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2022</v>
       </c>
       <c r="B19" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C19" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K19" s="2">
         <v>0</v>
       </c>
-      <c r="L19" s="6" t="s">
-        <v>45</v>
+      <c r="L19" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M19" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N19" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O19" s="7"/>
+        <v>44844</v>
+      </c>
+      <c r="O19" s="6"/>
     </row>
     <row r="20" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>2022</v>
       </c>
       <c r="B20" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C20" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="F20" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K20" s="2">
         <v>0</v>
       </c>
-      <c r="L20" s="6" t="s">
-        <v>45</v>
+      <c r="L20" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M20" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N20" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O20" s="7"/>
+        <v>44844</v>
+      </c>
+      <c r="O20" s="6"/>
     </row>
     <row r="21" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2022</v>
       </c>
       <c r="B21" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C21" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K21" s="2">
         <v>0</v>
       </c>
-      <c r="L21" s="6" t="s">
-        <v>45</v>
+      <c r="L21" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M21" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N21" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O21" s="7"/>
+        <v>44844</v>
+      </c>
+      <c r="O21" s="6"/>
     </row>
     <row r="22" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>2022</v>
       </c>
       <c r="B22" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C22" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K22" s="2">
         <v>0</v>
       </c>
-      <c r="L22" s="6" t="s">
-        <v>45</v>
+      <c r="L22" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M22" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N22" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O22" s="7"/>
+        <v>44844</v>
+      </c>
+      <c r="O22" s="6"/>
     </row>
     <row r="23" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2022</v>
       </c>
       <c r="B23" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C23" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K23" s="2">
         <v>0</v>
       </c>
-      <c r="L23" s="6" t="s">
-        <v>45</v>
+      <c r="L23" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M23" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N23" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O23" s="7"/>
+        <v>44844</v>
+      </c>
+      <c r="O23" s="6"/>
     </row>
     <row r="24" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>2022</v>
       </c>
       <c r="B24" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C24" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K24" s="2">
         <v>0</v>
       </c>
-      <c r="L24" s="6" t="s">
-        <v>45</v>
+      <c r="L24" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M24" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N24" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O24" s="7"/>
+        <v>44844</v>
+      </c>
+      <c r="O24" s="6"/>
     </row>
     <row r="25" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>2022</v>
       </c>
       <c r="B25" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C25" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K25" s="2">
         <v>0</v>
       </c>
-      <c r="L25" s="6" t="s">
-        <v>45</v>
+      <c r="L25" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M25" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N25" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O25" s="7"/>
+        <v>44844</v>
+      </c>
+      <c r="O25" s="6"/>
     </row>
     <row r="26" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>2022</v>
       </c>
       <c r="B26" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C26" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K26" s="2">
         <v>0</v>
       </c>
-      <c r="L26" s="6" t="s">
-        <v>45</v>
+      <c r="L26" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M26" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N26" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O26" s="7"/>
+        <v>44844</v>
+      </c>
+      <c r="O26" s="6"/>
     </row>
     <row r="27" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>2022</v>
       </c>
       <c r="B27" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C27" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K27" s="2">
         <v>0</v>
       </c>
-      <c r="L27" s="6" t="s">
-        <v>45</v>
+      <c r="L27" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M27" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N27" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O27" s="7"/>
+        <v>44844</v>
+      </c>
+      <c r="O27" s="6"/>
     </row>
     <row r="28" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2022</v>
       </c>
       <c r="B28" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C28" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K28" s="2">
         <v>0</v>
       </c>
-      <c r="L28" s="6" t="s">
-        <v>45</v>
+      <c r="L28" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M28" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N28" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O28" s="7"/>
+        <v>44844</v>
+      </c>
+      <c r="O28" s="6"/>
     </row>
     <row r="29" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>2022</v>
       </c>
       <c r="B29" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C29" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D29" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="F29" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K29" s="2">
         <v>0</v>
       </c>
-      <c r="L29" s="6" t="s">
-        <v>45</v>
+      <c r="L29" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M29" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N29" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O29" s="7"/>
+        <v>44844</v>
+      </c>
+      <c r="O29" s="6"/>
     </row>
     <row r="30" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2022</v>
       </c>
       <c r="B30" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C30" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K30" s="2">
         <v>0</v>
       </c>
-      <c r="L30" s="6" t="s">
-        <v>45</v>
+      <c r="L30" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M30" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N30" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O30" s="7"/>
+        <v>44844</v>
+      </c>
+      <c r="O30" s="6"/>
     </row>
     <row r="31" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>2022</v>
       </c>
       <c r="B31" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C31" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K31" s="2">
         <v>0</v>
       </c>
-      <c r="L31" s="6" t="s">
-        <v>45</v>
+      <c r="L31" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M31" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N31" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O31" s="7"/>
+        <v>44844</v>
+      </c>
+      <c r="O31" s="6"/>
     </row>
     <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>2022</v>
       </c>
       <c r="B32" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C32" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F32" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="H32" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K32" s="2">
         <v>0</v>
       </c>
-      <c r="L32" s="6" t="s">
-        <v>45</v>
+      <c r="L32" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M32" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N32" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O32" s="7"/>
-    </row>
-    <row r="33" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+        <v>44844</v>
+      </c>
+      <c r="O32" s="6"/>
+    </row>
+    <row r="33" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>2022</v>
       </c>
       <c r="B33" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C33" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K33" s="2">
         <v>0</v>
       </c>
-      <c r="L33" s="6" t="s">
-        <v>45</v>
+      <c r="L33" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M33" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N33" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O33" s="7"/>
+        <v>44844</v>
+      </c>
+      <c r="O33" s="6"/>
     </row>
     <row r="34" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>2022</v>
       </c>
       <c r="B34" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C34" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K34" s="2">
         <v>0</v>
       </c>
-      <c r="L34" s="6" t="s">
-        <v>45</v>
+      <c r="L34" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M34" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N34" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O34" s="7"/>
+        <v>44844</v>
+      </c>
+      <c r="O34" s="6"/>
     </row>
     <row r="35" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>2022</v>
       </c>
       <c r="B35" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C35" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K35" s="2">
         <v>0</v>
       </c>
-      <c r="L35" s="6" t="s">
-        <v>45</v>
+      <c r="L35" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M35" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N35" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O35" s="7"/>
+        <v>44844</v>
+      </c>
+      <c r="O35" s="6"/>
     </row>
     <row r="36" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>2022</v>
       </c>
       <c r="B36" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C36" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K36" s="2">
         <v>0</v>
       </c>
-      <c r="L36" s="6" t="s">
-        <v>45</v>
+      <c r="L36" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M36" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N36" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O36" s="7"/>
+        <v>44844</v>
+      </c>
+      <c r="O36" s="6"/>
     </row>
     <row r="37" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>2022</v>
       </c>
       <c r="B37" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C37" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F37" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="H37" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K37" s="2">
         <v>0</v>
       </c>
-      <c r="L37" s="6" t="s">
-        <v>45</v>
+      <c r="L37" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M37" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N37" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O37" s="7"/>
+        <v>44844</v>
+      </c>
+      <c r="O37" s="6"/>
     </row>
     <row r="38" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>2022</v>
       </c>
       <c r="B38" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C38" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K38" s="2">
         <v>0</v>
       </c>
-      <c r="L38" s="6" t="s">
-        <v>45</v>
+      <c r="L38" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M38" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N38" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O38" s="7"/>
+        <v>44844</v>
+      </c>
+      <c r="O38" s="6"/>
     </row>
     <row r="39" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>2022</v>
       </c>
       <c r="B39" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C39" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D39" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="F39" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K39" s="2">
         <v>0</v>
       </c>
-      <c r="L39" s="6" t="s">
-        <v>45</v>
+      <c r="L39" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M39" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N39" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O39" s="7"/>
+        <v>44844</v>
+      </c>
+      <c r="O39" s="6"/>
     </row>
     <row r="40" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>2022</v>
       </c>
       <c r="B40" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C40" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K40" s="2">
         <v>0</v>
       </c>
-      <c r="L40" s="6" t="s">
-        <v>45</v>
+      <c r="L40" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M40" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N40" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O40" s="7"/>
+        <v>44844</v>
+      </c>
+      <c r="O40" s="6"/>
     </row>
     <row r="41" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>2022</v>
       </c>
       <c r="B41" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C41" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K41" s="2">
         <v>0</v>
       </c>
-      <c r="L41" s="6" t="s">
-        <v>45</v>
+      <c r="L41" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M41" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N41" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O41" s="7"/>
+        <v>44844</v>
+      </c>
+      <c r="O41" s="6"/>
     </row>
     <row r="42" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>2022</v>
       </c>
       <c r="B42" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C42" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K42" s="2">
         <v>0</v>
       </c>
-      <c r="L42" s="6" t="s">
-        <v>45</v>
+      <c r="L42" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M42" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N42" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O42" s="7"/>
-    </row>
-    <row r="43" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+        <v>44844</v>
+      </c>
+      <c r="O42" s="6"/>
+    </row>
+    <row r="43" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>2022</v>
       </c>
       <c r="B43" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C43" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K43" s="2">
         <v>0</v>
       </c>
-      <c r="L43" s="6" t="s">
-        <v>45</v>
+      <c r="L43" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M43" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N43" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O43" s="7"/>
+        <v>44844</v>
+      </c>
+      <c r="O43" s="6"/>
     </row>
     <row r="44" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>2022</v>
       </c>
       <c r="B44" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C44" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K44" s="2">
         <v>0</v>
       </c>
-      <c r="L44" s="6" t="s">
-        <v>45</v>
+      <c r="L44" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M44" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N44" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O44" s="7"/>
+        <v>44844</v>
+      </c>
+      <c r="O44" s="6"/>
     </row>
     <row r="45" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>2022</v>
       </c>
       <c r="B45" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C45" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K45" s="2">
         <v>0</v>
       </c>
-      <c r="L45" s="6" t="s">
-        <v>45</v>
+      <c r="L45" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M45" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N45" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O45" s="7"/>
+        <v>44844</v>
+      </c>
+      <c r="O45" s="6"/>
     </row>
     <row r="46" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>2022</v>
       </c>
       <c r="B46" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C46" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K46" s="2">
         <v>0</v>
       </c>
-      <c r="L46" s="6" t="s">
-        <v>45</v>
+      <c r="L46" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M46" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N46" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O46" s="7"/>
-    </row>
-    <row r="47" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+        <v>44844</v>
+      </c>
+      <c r="O46" s="6"/>
+    </row>
+    <row r="47" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>2022</v>
       </c>
       <c r="B47" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C47" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K47" s="2">
         <v>0</v>
       </c>
-      <c r="L47" s="6" t="s">
-        <v>45</v>
+      <c r="L47" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M47" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N47" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O47" s="7"/>
+        <v>44844</v>
+      </c>
+      <c r="O47" s="6"/>
     </row>
     <row r="48" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>2022</v>
       </c>
       <c r="B48" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C48" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K48" s="2">
         <v>0</v>
       </c>
-      <c r="L48" s="6" t="s">
-        <v>45</v>
+      <c r="L48" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M48" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N48" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O48" s="7"/>
+        <v>44844</v>
+      </c>
+      <c r="O48" s="6"/>
     </row>
     <row r="49" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>2022</v>
       </c>
       <c r="B49" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C49" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K49" s="2">
         <v>0</v>
       </c>
-      <c r="L49" s="6" t="s">
-        <v>45</v>
+      <c r="L49" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M49" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N49" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O49" s="7"/>
+        <v>44844</v>
+      </c>
+      <c r="O49" s="6"/>
     </row>
     <row r="50" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>2022</v>
       </c>
       <c r="B50" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C50" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K50" s="2">
         <v>0</v>
       </c>
-      <c r="L50" s="6" t="s">
-        <v>45</v>
+      <c r="L50" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M50" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N50" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O50" s="7"/>
+        <v>44844</v>
+      </c>
+      <c r="O50" s="6"/>
     </row>
     <row r="51" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>2022</v>
       </c>
       <c r="B51" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C51" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K51" s="2">
         <v>0</v>
       </c>
-      <c r="L51" s="6" t="s">
-        <v>45</v>
+      <c r="L51" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M51" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N51" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O51" s="7"/>
+        <v>44844</v>
+      </c>
+      <c r="O51" s="6"/>
     </row>
     <row r="52" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>2022</v>
       </c>
       <c r="B52" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C52" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K52" s="2">
         <v>0</v>
       </c>
-      <c r="L52" s="6" t="s">
-        <v>45</v>
+      <c r="L52" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M52" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N52" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O52" s="7"/>
+        <v>44844</v>
+      </c>
+      <c r="O52" s="6"/>
     </row>
     <row r="53" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>2022</v>
       </c>
       <c r="B53" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C53" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K53" s="2">
         <v>0</v>
       </c>
-      <c r="L53" s="6" t="s">
-        <v>45</v>
+      <c r="L53" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M53" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N53" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O53" s="7"/>
-    </row>
-    <row r="54" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+        <v>44844</v>
+      </c>
+      <c r="O53" s="6"/>
+    </row>
+    <row r="54" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>2022</v>
       </c>
       <c r="B54" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C54" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K54" s="2">
         <v>0</v>
       </c>
-      <c r="L54" s="6" t="s">
-        <v>45</v>
+      <c r="L54" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M54" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N54" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O54" s="7"/>
-    </row>
-    <row r="55" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+        <v>44844</v>
+      </c>
+      <c r="O54" s="6"/>
+    </row>
+    <row r="55" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>2022</v>
       </c>
       <c r="B55" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C55" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K55" s="2">
         <v>0</v>
       </c>
-      <c r="L55" s="6" t="s">
-        <v>45</v>
+      <c r="L55" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M55" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N55" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O55" s="7"/>
-    </row>
-    <row r="56" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+        <v>44844</v>
+      </c>
+      <c r="O55" s="6"/>
+    </row>
+    <row r="56" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>2022</v>
       </c>
       <c r="B56" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C56" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K56" s="2">
         <v>0</v>
       </c>
-      <c r="L56" s="6" t="s">
-        <v>45</v>
+      <c r="L56" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M56" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N56" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O56" s="7"/>
+        <v>44844</v>
+      </c>
+      <c r="O56" s="6"/>
     </row>
     <row r="57" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>2022</v>
       </c>
       <c r="B57" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C57" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K57" s="2">
         <v>0</v>
       </c>
-      <c r="L57" s="6" t="s">
-        <v>45</v>
+      <c r="L57" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M57" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N57" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O57" s="7"/>
-    </row>
-    <row r="58" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+        <v>44844</v>
+      </c>
+      <c r="O57" s="6"/>
+    </row>
+    <row r="58" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>2022</v>
       </c>
       <c r="B58" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C58" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K58" s="2">
         <v>0</v>
       </c>
-      <c r="L58" s="6" t="s">
-        <v>45</v>
+      <c r="L58" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M58" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N58" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O58" s="7"/>
+        <v>44844</v>
+      </c>
+      <c r="O58" s="6"/>
     </row>
     <row r="59" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>2022</v>
       </c>
       <c r="B59" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C59" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K59" s="2">
         <v>0</v>
       </c>
-      <c r="L59" s="6" t="s">
-        <v>45</v>
+      <c r="L59" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M59" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N59" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O59" s="7"/>
+        <v>44844</v>
+      </c>
+      <c r="O59" s="6"/>
     </row>
     <row r="60" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>2022</v>
       </c>
       <c r="B60" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C60" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K60" s="2">
         <v>0</v>
       </c>
-      <c r="L60" s="6" t="s">
-        <v>45</v>
+      <c r="L60" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="M60" s="3">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="N60" s="3">
-        <v>44753</v>
-      </c>
-      <c r="O60" s="7"/>
+        <v>44844</v>
+      </c>
+      <c r="O60" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3656,6 +3654,6 @@
     <hyperlink ref="J12" r:id="rId53"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId54"/>
+  <pageSetup orientation="portrait" r:id="rId54"/>
 </worksheet>
 </file>
--- a/xlsx/a69_f02_aUPPachuca.xlsx
+++ b/xlsx/a69_f02_aUPPachuca.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\2023\SIPOT\1er Trimestre 2023\Recepción de Información\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="750" yWindow="555" windowWidth="13815" windowHeight="9405"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="177">
   <si>
     <t>43962</t>
   </si>
@@ -184,15 +189,60 @@
     <t>Secretaría Administrativa</t>
   </si>
   <si>
+    <t>Secretario Administrativo</t>
+  </si>
+  <si>
     <t>Artículos 27 y 34 del Estatuto Orgánico de la Universidad Politécnica de Pachuca</t>
   </si>
   <si>
+    <t>Dirección de la División de Estudios de Ingeniería</t>
+  </si>
+  <si>
     <t>Director de Área</t>
   </si>
   <si>
+    <t>Director de la División de Estudios de Ingeniería</t>
+  </si>
+  <si>
+    <t>Dirección de la División de Estudios de Ingeniería (UPP)</t>
+  </si>
+  <si>
     <t>Artículos 27 y 31 del Estatuto Orgánico de la Universidad Politécnica de Pachuca</t>
   </si>
   <si>
+    <t>Dirección de la División de Ciencias de la Salud</t>
+  </si>
+  <si>
+    <t>Directora de la División de Estudios de Ciencias de la Salud</t>
+  </si>
+  <si>
+    <t>Secretaría Académica (UPP)</t>
+  </si>
+  <si>
+    <t>Abogado General</t>
+  </si>
+  <si>
+    <t>Artículos 27 y 49 del Estatuto Orgánico de la Universidad Politécnica de Pachuca</t>
+  </si>
+  <si>
+    <t>Dirección de Comunicación Social e Imagen Institucional</t>
+  </si>
+  <si>
+    <t>Director de Comunicación Social e Imagen Institucional</t>
+  </si>
+  <si>
+    <t>Artículos 27 y 46 del Estatuto Orgánico de la Universidad Politécnica de Pachuca</t>
+  </si>
+  <si>
+    <t>Dirección de Investigación, Innovación y Posgrado</t>
+  </si>
+  <si>
+    <t>Director de Investigación, Innovación y Posgrado</t>
+  </si>
+  <si>
+    <t>Artículo 27 del Estatuto Orgánico de la Universidad Politécnica de Pachuca</t>
+  </si>
+  <si>
     <t>Dirección de Vinculación y Extensión</t>
   </si>
   <si>
@@ -202,30 +252,6 @@
     <t>Artículos 27 y 55 del Estatuto Orgánico de la Universidad Politécnica de Pachuca</t>
   </si>
   <si>
-    <t>Abogado General</t>
-  </si>
-  <si>
-    <t>Artículos 27 y 49 del Estatuto Orgánico de la Universidad Politécnica de Pachuca</t>
-  </si>
-  <si>
-    <t>Dirección de Comunicación Social e Imagen Institucional</t>
-  </si>
-  <si>
-    <t>Director de Comunicación Social e Imagen Institucional</t>
-  </si>
-  <si>
-    <t>Artículos 27 y 46 del Estatuto Orgánico de la Universidad Politécnica de Pachuca</t>
-  </si>
-  <si>
-    <t>Dirección de Investigación, Innovación y Posgrado</t>
-  </si>
-  <si>
-    <t>Director de Investigación, Innovación y Posgrado</t>
-  </si>
-  <si>
-    <t>Artículo 27 del Estatuto Orgánico de la Universidad Politécnica de Pachuca</t>
-  </si>
-  <si>
     <t>Dirección de Planeación</t>
   </si>
   <si>
@@ -241,36 +267,66 @@
     <t>Director de Programa Educativo</t>
   </si>
   <si>
+    <t>Directora de Programa de Ingeniería en Software e Ingeniería en Redes y Telecomunicaciones</t>
+  </si>
+  <si>
     <t>Ingeniería Financiera</t>
   </si>
   <si>
+    <t>Director de Programa de Ingeniería Financiera</t>
+  </si>
+  <si>
+    <t>Ingeniería en Biotecnología</t>
+  </si>
+  <si>
+    <t>Directora de Programa de Ingeniería en Biotecnología</t>
+  </si>
+  <si>
     <t>Ingeniería Mecatrónica</t>
   </si>
   <si>
-    <t>Ingeniería en Biotecnología</t>
+    <t>Director de los Programas de Ingeniería Mecatrónica e Ingeniería en Sistemas y Tecnologías Industriales</t>
   </si>
   <si>
     <t>Ingeniería Mecánica Automotriz</t>
   </si>
   <si>
+    <t>Director de Programa de Ingeniería Mecánica Automotriz</t>
+  </si>
+  <si>
+    <t>Ingeniería en Biomédica</t>
+  </si>
+  <si>
+    <t>Director de Programa de Ingeniería Biomédica</t>
+  </si>
+  <si>
+    <t>Licenciatura en Médico Cirujano</t>
+  </si>
+  <si>
+    <t>Encargada de la Dirección de Programa de Licenciatura en Médico Cirujano</t>
+  </si>
+  <si>
+    <t>Dirección de la División de Ciencias de la Salud (UPP)</t>
+  </si>
+  <si>
     <t>Licenciatura en Terapia Física</t>
   </si>
   <si>
-    <t>Ingeniería en Biomédica</t>
-  </si>
-  <si>
-    <t>Licenciatura en Médico Cirujano</t>
+    <t>Directora de Programa de Licenciatura en Terapia Física</t>
+  </si>
+  <si>
+    <t>Subdirección de Imagen Institucional</t>
   </si>
   <si>
     <t>Subdirector de Área</t>
   </si>
   <si>
+    <t>Subdirector de Imagen Institucional</t>
+  </si>
+  <si>
     <t>Dirección de Comunicación Social e Imagen Institucional (UPP)</t>
   </si>
   <si>
-    <t>Secretaría Académica (UPP)</t>
-  </si>
-  <si>
     <t>Coordinación del Posgrado en Didáctica y Ciencias</t>
   </si>
   <si>
@@ -298,6 +354,12 @@
     <t>Encargado de la Coordinación del Posgrado en Mecatrónica</t>
   </si>
   <si>
+    <t>Unidad para la Inclusión y Calidad Educativa</t>
+  </si>
+  <si>
+    <t>Subdirectora de la Unidad para la Inclusión y Calidad Educativa</t>
+  </si>
+  <si>
     <t>Subdirección de Recursos Financieros</t>
   </si>
   <si>
@@ -307,46 +369,91 @@
     <t>Secretaría Administrativa (UPP)</t>
   </si>
   <si>
+    <t>Subdirección de Infraestructura</t>
+  </si>
+  <si>
+    <t>Subdirector de Infraestructura</t>
+  </si>
+  <si>
+    <t>Subdirección de Planeación y Presupuesto</t>
+  </si>
+  <si>
+    <t>Subdirector de Planeación y Presupuesto</t>
+  </si>
+  <si>
     <t>Dirección de Planeación (UPP)</t>
   </si>
   <si>
-    <t>Subdirección de Planeación y Presupuesto</t>
-  </si>
-  <si>
-    <t>Subdirector de Planeación y Presupuesto</t>
+    <t>Departamento de Asuntos Jurídicos</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento C</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Asuntos Jurídicos</t>
+  </si>
+  <si>
+    <t>Abogado General (UPP)</t>
+  </si>
+  <si>
+    <t>Departamento de Análisis y Desarrollo de Sistemas de Información</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Análisis y Desarrollo de Sistemas de Información</t>
+  </si>
+  <si>
+    <t>Departamento de Soporte Técnico del CFIIM</t>
+  </si>
+  <si>
+    <t>Departamento de Proyectos Especiales</t>
+  </si>
+  <si>
+    <t>Jefa de Departamento de Proyectos Especiales</t>
+  </si>
+  <si>
+    <t>Departamento de Desarrollo Académico</t>
+  </si>
+  <si>
+    <t>Jefa de Departamento de Desarrollo Académico</t>
+  </si>
+  <si>
+    <t>Departamento de Servicios Bibliotecarios</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Servicios Bibliotecarios</t>
+  </si>
+  <si>
+    <t>Departamento de Aceleración de Negocios</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Aceleración de Negocios</t>
   </si>
   <si>
     <t>Unidad de Promoción y Desarrollo Estudiantil</t>
   </si>
   <si>
-    <t>Jefe de Departamento C</t>
-  </si>
-  <si>
     <t>Jefe de Departamento de la Unidad de Promoción y Desarrollo Estudiantil</t>
   </si>
   <si>
+    <t>Departamento de Vinculación</t>
+  </si>
+  <si>
+    <t>Jefa de Departamento de Vinculación</t>
+  </si>
+  <si>
     <t>Dirección de Vinculación y Extensión (UPP)</t>
   </si>
   <si>
-    <t>Abogado General (UPP)</t>
-  </si>
-  <si>
-    <t>Departamento de Análisis y Desarrollo de Sistemas de Información</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Análisis y Desarrollo de Sistemas de Información</t>
-  </si>
-  <si>
-    <t>Departamento de Desarrollo Académico</t>
-  </si>
-  <si>
-    <t>Jefa de Departamento de Desarrollo Académico</t>
-  </si>
-  <si>
-    <t>Departamento de Servicios Bibliotecarios</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Servicios Bibliotecarios</t>
+    <t>Departamento de Formación en el Campo Profesional</t>
+  </si>
+  <si>
+    <t>Jefa de Departamento de Formación en el Campo Profesional</t>
+  </si>
+  <si>
+    <t>Departamento de Actividades Culturales, Deportivas y Recreativas</t>
+  </si>
+  <si>
+    <t>Jefa de Departamento de Actividades Culturales, Deportivas y Recreativas</t>
   </si>
   <si>
     <t>Departamento de Educación a Distancia</t>
@@ -373,16 +480,43 @@
     <t>Encargada de Departamento de Atención y Promoción de la Salud</t>
   </si>
   <si>
+    <t>Departamento de Tecnologías de Información y Comunicaciones</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Tecnologías de Información y Comunicaciones</t>
+  </si>
+  <si>
     <t>Departamento de Adquisición de Bienes y Servicios</t>
   </si>
   <si>
     <t>Jefe de Departamento de Adquisición de Bienes y Servicios</t>
   </si>
   <si>
-    <t>Departamento de Tecnologías de Información y Comunicaciones</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Tecnologías de Información y Comunicaciones</t>
+    <t>Departamento de Inventarios</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Inventarios</t>
+  </si>
+  <si>
+    <t>Departamento de Parque Vehicular</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Parque Vehicular</t>
+  </si>
+  <si>
+    <t>Departamento de Infraestructura Deportiva</t>
+  </si>
+  <si>
+    <t>Departamento de Infraestructura Educativa</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Infraestructura Educativa</t>
+  </si>
+  <si>
+    <t>Departamento de Mantenimiento</t>
+  </si>
+  <si>
+    <t>Jefe de Departamento de Mantenimiento</t>
   </si>
   <si>
     <t>Departamento de Servicios Escolares</t>
@@ -397,151 +531,25 @@
     <t>Jefa de Departamento de Evaluación y Estadísticas</t>
   </si>
   <si>
-    <t>Secretario Administrativo</t>
-  </si>
-  <si>
-    <t>Dirección de la División de Estudios de Ingeniería</t>
-  </si>
-  <si>
-    <t>Director de la División de Estudios de Ingeniería</t>
-  </si>
-  <si>
-    <t>Dirección de la División de Estudios de Ingeniería (UPP)</t>
-  </si>
-  <si>
-    <t>Dirección de la División de Ciencias de la Salud</t>
-  </si>
-  <si>
-    <t>Directora de la División de Estudios de Ciencias de la Salud</t>
-  </si>
-  <si>
-    <t>Directora de Programa de Ingeniería en Software e Ingeniería en Redes y Telecomunicaciones</t>
-  </si>
-  <si>
-    <t>Director de Programa de Ingeniería Financiera</t>
-  </si>
-  <si>
-    <t>Directora de Programa de Ingeniería en Biotecnología</t>
-  </si>
-  <si>
-    <t>Director de los Programas de Ingeniería Mecatrónica e Ingeniería en Sistemas y Tecnologías Industriales</t>
-  </si>
-  <si>
-    <t>Director de Programa de Ingeniería Mecánica Automotriz</t>
-  </si>
-  <si>
-    <t>Director de Programa de Ingeniería Biomédica</t>
-  </si>
-  <si>
-    <t>Encargada de la Dirección de Programa de Licenciatura en Médico Cirujano</t>
-  </si>
-  <si>
-    <t>Directora de Programa de Licenciatura en Terapia Física</t>
-  </si>
-  <si>
-    <t>Dirección de la División de Ciencias de la Salud (UPP)</t>
-  </si>
-  <si>
-    <t>Subdirección de Imagen Institucional</t>
-  </si>
-  <si>
-    <t>Subdirector de Imagen Institucional</t>
-  </si>
-  <si>
-    <t>Unidad para la Inclusión y Calidad Educativa</t>
-  </si>
-  <si>
-    <t>Subdirectora de la Unidad para la Inclusión y Calidad Educativa</t>
-  </si>
-  <si>
-    <t>Subdirección de Infraestructura</t>
-  </si>
-  <si>
-    <t>Subdirector de Infraestructura</t>
-  </si>
-  <si>
-    <t>Departamento de Asuntos Jurídicos</t>
-  </si>
-  <si>
-    <t>Departamento de Soporte Técnico del CFIIM</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Soporte Técnico del CFIIM</t>
-  </si>
-  <si>
-    <t>Departamento de Proyectos Especiales</t>
-  </si>
-  <si>
-    <t>Jefa de Departamento de Proyectos Especiales</t>
-  </si>
-  <si>
-    <t>Departamento de Aceleración de Negocios</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Aceleración de Negocios</t>
-  </si>
-  <si>
-    <t>Departamento de Vinculación</t>
-  </si>
-  <si>
-    <t>Jefa de Departamento de Vinculación</t>
-  </si>
-  <si>
-    <t>Jefa de Departamento de Formación en el Campo Profesional</t>
-  </si>
-  <si>
-    <t>Departamento de Formación en el Campo Profesional</t>
-  </si>
-  <si>
-    <t>Departamento de Actividades Culturales, Deportivas y Recreativas</t>
-  </si>
-  <si>
-    <t>Jefa de Departamento de Actividades Culturales, Deportivas y Recreativas</t>
-  </si>
-  <si>
-    <t>Departamento de Inventarios</t>
-  </si>
-  <si>
-    <t>Departamento de Parque Vehicular</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Inventarios</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Parque Vehicular</t>
-  </si>
-  <si>
-    <t>Departamento de Infraestructura Deportiva</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Infraestructura Deportiva</t>
-  </si>
-  <si>
-    <t>Departamento de Infraestructura Educativa</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Infraestructura Educativa</t>
-  </si>
-  <si>
-    <t>Departamento de Mantenimiento</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Mantenimiento</t>
-  </si>
-  <si>
     <t>Departamento de Presupuesto</t>
   </si>
   <si>
+    <t>Jefe de Departamento de Presupuesto</t>
+  </si>
+  <si>
     <t>Departamento de Calidad</t>
   </si>
   <si>
-    <t>Jefe de Departamento de Asuntos Jurídicos</t>
-  </si>
-  <si>
-    <t>Jefe de Departamento de Presupuesto</t>
-  </si>
-  <si>
     <t>Jefe de Departamento de Calidad</t>
+  </si>
+  <si>
+    <t>Encargado del Despacho de la Secretaria Administrativa</t>
+  </si>
+  <si>
+    <t>Jefa de Departamento de Soporte Técnico del CFIIM</t>
+  </si>
+  <si>
+    <t>Jefa de Departamento de Infraestructura Deportiva</t>
   </si>
 </sst>
 </file>
@@ -633,7 +641,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -651,15 +659,12 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -721,7 +726,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -756,7 +761,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -967,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8:O60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,12 +987,12 @@
     <col min="7" max="7" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="111.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="55.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="70" customWidth="1"/>
+    <col min="10" max="10" width="72.42578125" customWidth="1"/>
     <col min="11" max="11" width="47.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="45.140625" customWidth="1"/>
+    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -996,38 +1001,38 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="9" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1124,23 +1129,23 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
     </row>
     <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1191,13 +1196,13 @@
     </row>
     <row r="8" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B8" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C8" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>46</v>
@@ -1227,22 +1232,22 @@
         <v>45</v>
       </c>
       <c r="M8" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N8" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O8" s="7"/>
+        <v>45026</v>
+      </c>
+      <c r="O8" s="2"/>
     </row>
     <row r="9" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B9" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C9" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>52</v>
@@ -1272,37 +1277,37 @@
         <v>45</v>
       </c>
       <c r="M9" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N9" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O9" s="7"/>
+        <v>45026</v>
+      </c>
+      <c r="O9" s="10"/>
     </row>
     <row r="10" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B10" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C10" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>55</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>127</v>
+        <v>174</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>48</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>50</v>
@@ -1317,37 +1322,37 @@
         <v>45</v>
       </c>
       <c r="M10" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N10" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O10" s="7"/>
+        <v>45026</v>
+      </c>
+      <c r="O10" s="10"/>
     </row>
     <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B11" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C11" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>50</v>
@@ -1362,37 +1367,37 @@
         <v>45</v>
       </c>
       <c r="M11" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N11" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O11" s="7"/>
-    </row>
-    <row r="12" spans="1:15" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>45026</v>
+      </c>
+      <c r="O11" s="10"/>
+    </row>
+    <row r="12" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B12" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C12" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>50</v>
@@ -1407,37 +1412,37 @@
         <v>45</v>
       </c>
       <c r="M12" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N12" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O12" s="7"/>
+        <v>45026</v>
+      </c>
+      <c r="O12" s="10"/>
     </row>
     <row r="13" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B13" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C13" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>48</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>50</v>
@@ -1452,37 +1457,37 @@
         <v>45</v>
       </c>
       <c r="M13" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N13" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O13" s="7"/>
+        <v>45026</v>
+      </c>
+      <c r="O13" s="10"/>
     </row>
     <row r="14" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B14" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C14" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>48</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>50</v>
@@ -1497,37 +1502,37 @@
         <v>45</v>
       </c>
       <c r="M14" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N14" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O14" s="7"/>
+        <v>45026</v>
+      </c>
+      <c r="O14" s="10"/>
     </row>
     <row r="15" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B15" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C15" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>48</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>50</v>
@@ -1542,37 +1547,37 @@
         <v>45</v>
       </c>
       <c r="M15" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N15" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O15" s="7"/>
+        <v>45026</v>
+      </c>
+      <c r="O15" s="10"/>
     </row>
     <row r="16" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B16" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C16" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="F16" s="4" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>48</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>50</v>
@@ -1587,37 +1592,37 @@
         <v>45</v>
       </c>
       <c r="M16" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N16" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O16" s="7"/>
+        <v>45026</v>
+      </c>
+      <c r="O16" s="10"/>
     </row>
     <row r="17" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B17" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C17" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>48</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>50</v>
@@ -1632,37 +1637,37 @@
         <v>45</v>
       </c>
       <c r="M17" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N17" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O17" s="7"/>
+        <v>45026</v>
+      </c>
+      <c r="O17" s="10"/>
     </row>
     <row r="18" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B18" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C18" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>50</v>
@@ -1677,37 +1682,37 @@
         <v>45</v>
       </c>
       <c r="M18" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N18" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O18" s="7"/>
+        <v>45026</v>
+      </c>
+      <c r="O18" s="10"/>
     </row>
     <row r="19" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B19" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C19" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>50</v>
@@ -1722,37 +1727,37 @@
         <v>45</v>
       </c>
       <c r="M19" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N19" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O19" s="7"/>
+        <v>45026</v>
+      </c>
+      <c r="O19" s="10"/>
     </row>
     <row r="20" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B20" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C20" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>50</v>
@@ -1767,37 +1772,37 @@
         <v>45</v>
       </c>
       <c r="M20" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N20" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O20" s="7"/>
+        <v>45026</v>
+      </c>
+      <c r="O20" s="10"/>
     </row>
     <row r="21" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B21" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C21" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>50</v>
@@ -1812,37 +1817,37 @@
         <v>45</v>
       </c>
       <c r="M21" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N21" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O21" s="7"/>
+        <v>45026</v>
+      </c>
+      <c r="O21" s="10"/>
     </row>
     <row r="22" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B22" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C22" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>50</v>
@@ -1857,37 +1862,37 @@
         <v>45</v>
       </c>
       <c r="M22" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N22" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O22" s="7"/>
+        <v>45026</v>
+      </c>
+      <c r="O22" s="10"/>
     </row>
     <row r="23" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B23" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C23" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>50</v>
@@ -1902,37 +1907,37 @@
         <v>45</v>
       </c>
       <c r="M23" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N23" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O23" s="7"/>
+        <v>45026</v>
+      </c>
+      <c r="O23" s="10"/>
     </row>
     <row r="24" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B24" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C24" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D24" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="F24" s="4" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>50</v>
@@ -1947,37 +1952,37 @@
         <v>45</v>
       </c>
       <c r="M24" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N24" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O24" s="7"/>
+        <v>45026</v>
+      </c>
+      <c r="O24" s="10"/>
     </row>
     <row r="25" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B25" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C25" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>50</v>
@@ -1992,37 +1997,37 @@
         <v>45</v>
       </c>
       <c r="M25" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N25" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O25" s="7"/>
+        <v>45026</v>
+      </c>
+      <c r="O25" s="10"/>
     </row>
     <row r="26" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B26" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C26" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>50</v>
@@ -2037,37 +2042,37 @@
         <v>45</v>
       </c>
       <c r="M26" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N26" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O26" s="7"/>
+        <v>45026</v>
+      </c>
+      <c r="O26" s="10"/>
     </row>
     <row r="27" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B27" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C27" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>50</v>
@@ -2082,37 +2087,37 @@
         <v>45</v>
       </c>
       <c r="M27" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N27" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O27" s="7"/>
+        <v>45026</v>
+      </c>
+      <c r="O27" s="10"/>
     </row>
     <row r="28" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B28" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C28" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>50</v>
@@ -2127,37 +2132,37 @@
         <v>45</v>
       </c>
       <c r="M28" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N28" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O28" s="7"/>
+        <v>45026</v>
+      </c>
+      <c r="O28" s="10"/>
     </row>
     <row r="29" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B29" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C29" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>50</v>
@@ -2172,37 +2177,37 @@
         <v>45</v>
       </c>
       <c r="M29" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N29" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O29" s="7"/>
+        <v>45026</v>
+      </c>
+      <c r="O29" s="10"/>
     </row>
     <row r="30" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B30" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C30" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>50</v>
@@ -2217,37 +2222,37 @@
         <v>45</v>
       </c>
       <c r="M30" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N30" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O30" s="7"/>
+        <v>45026</v>
+      </c>
+      <c r="O30" s="10"/>
     </row>
     <row r="31" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B31" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C31" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>50</v>
@@ -2262,37 +2267,37 @@
         <v>45</v>
       </c>
       <c r="M31" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N31" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O31" s="7"/>
+        <v>45026</v>
+      </c>
+      <c r="O31" s="10"/>
     </row>
     <row r="32" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B32" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C32" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>50</v>
@@ -2307,37 +2312,37 @@
         <v>45</v>
       </c>
       <c r="M32" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N32" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O32" s="7"/>
-    </row>
-    <row r="33" spans="1:15" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>45026</v>
+      </c>
+      <c r="O32" s="10"/>
+    </row>
+    <row r="33" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B33" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C33" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>50</v>
@@ -2352,37 +2357,37 @@
         <v>45</v>
       </c>
       <c r="M33" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N33" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O33" s="7"/>
+        <v>45026</v>
+      </c>
+      <c r="O33" s="10"/>
     </row>
     <row r="34" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B34" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C34" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>50</v>
@@ -2397,37 +2402,37 @@
         <v>45</v>
       </c>
       <c r="M34" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N34" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O34" s="7"/>
+        <v>45026</v>
+      </c>
+      <c r="O34" s="10"/>
     </row>
     <row r="35" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B35" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C35" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>173</v>
+        <v>123</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>50</v>
@@ -2442,37 +2447,37 @@
         <v>45</v>
       </c>
       <c r="M35" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N35" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O35" s="7"/>
+        <v>45026</v>
+      </c>
+      <c r="O35" s="10"/>
     </row>
     <row r="36" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B36" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C36" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>50</v>
@@ -2487,37 +2492,37 @@
         <v>45</v>
       </c>
       <c r="M36" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N36" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O36" s="7"/>
-    </row>
-    <row r="37" spans="1:15" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>45026</v>
+      </c>
+      <c r="O36" s="10"/>
+    </row>
+    <row r="37" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B37" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C37" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>50</v>
@@ -2532,37 +2537,37 @@
         <v>45</v>
       </c>
       <c r="M37" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N37" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O37" s="7"/>
+        <v>45026</v>
+      </c>
+      <c r="O37" s="10"/>
     </row>
     <row r="38" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B38" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C38" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>50</v>
@@ -2577,37 +2582,37 @@
         <v>45</v>
       </c>
       <c r="M38" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N38" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O38" s="7"/>
+        <v>45026</v>
+      </c>
+      <c r="O38" s="10"/>
     </row>
     <row r="39" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B39" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C39" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>50</v>
@@ -2622,37 +2627,37 @@
         <v>45</v>
       </c>
       <c r="M39" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N39" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O39" s="7"/>
+        <v>45026</v>
+      </c>
+      <c r="O39" s="10"/>
     </row>
     <row r="40" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B40" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C40" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>50</v>
@@ -2667,37 +2672,37 @@
         <v>45</v>
       </c>
       <c r="M40" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N40" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O40" s="7"/>
+        <v>45026</v>
+      </c>
+      <c r="O40" s="10"/>
     </row>
     <row r="41" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B41" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C41" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>50</v>
@@ -2712,37 +2717,37 @@
         <v>45</v>
       </c>
       <c r="M41" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N41" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O41" s="7"/>
+        <v>45026</v>
+      </c>
+      <c r="O41" s="10"/>
     </row>
     <row r="42" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B42" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C42" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>48</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>50</v>
@@ -2757,37 +2762,37 @@
         <v>45</v>
       </c>
       <c r="M42" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N42" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O42" s="7"/>
+        <v>45026</v>
+      </c>
+      <c r="O42" s="10"/>
     </row>
     <row r="43" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B43" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C43" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>50</v>
@@ -2802,37 +2807,37 @@
         <v>45</v>
       </c>
       <c r="M43" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N43" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O43" s="7"/>
-    </row>
-    <row r="44" spans="1:15" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>45026</v>
+      </c>
+      <c r="O43" s="10"/>
+    </row>
+    <row r="44" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B44" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C44" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>50</v>
@@ -2847,37 +2852,37 @@
         <v>45</v>
       </c>
       <c r="M44" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N44" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O44" s="7"/>
+        <v>45026</v>
+      </c>
+      <c r="O44" s="10"/>
     </row>
     <row r="45" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B45" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C45" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>50</v>
@@ -2892,37 +2897,37 @@
         <v>45</v>
       </c>
       <c r="M45" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N45" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O45" s="7"/>
+        <v>45026</v>
+      </c>
+      <c r="O45" s="10"/>
     </row>
     <row r="46" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B46" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C46" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>50</v>
@@ -2937,37 +2942,37 @@
         <v>45</v>
       </c>
       <c r="M46" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N46" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O46" s="7"/>
+        <v>45026</v>
+      </c>
+      <c r="O46" s="10"/>
     </row>
     <row r="47" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B47" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C47" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>50</v>
@@ -2982,37 +2987,37 @@
         <v>45</v>
       </c>
       <c r="M47" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N47" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O47" s="7"/>
+        <v>45026</v>
+      </c>
+      <c r="O47" s="10"/>
     </row>
     <row r="48" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B48" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C48" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D48" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G48" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="H48" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>50</v>
@@ -3027,37 +3032,37 @@
         <v>45</v>
       </c>
       <c r="M48" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N48" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O48" s="7"/>
+        <v>45026</v>
+      </c>
+      <c r="O48" s="10"/>
     </row>
     <row r="49" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B49" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C49" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>50</v>
@@ -3072,37 +3077,37 @@
         <v>45</v>
       </c>
       <c r="M49" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N49" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O49" s="7"/>
+        <v>45026</v>
+      </c>
+      <c r="O49" s="10"/>
     </row>
     <row r="50" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B50" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C50" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>50</v>
@@ -3117,37 +3122,37 @@
         <v>45</v>
       </c>
       <c r="M50" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N50" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O50" s="7"/>
+        <v>45026</v>
+      </c>
+      <c r="O50" s="10"/>
     </row>
     <row r="51" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B51" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C51" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>50</v>
@@ -3162,37 +3167,37 @@
         <v>45</v>
       </c>
       <c r="M51" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N51" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O51" s="7"/>
-    </row>
-    <row r="52" spans="1:15" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>45026</v>
+      </c>
+      <c r="O51" s="10"/>
+    </row>
+    <row r="52" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B52" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C52" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>50</v>
@@ -3207,37 +3212,37 @@
         <v>45</v>
       </c>
       <c r="M52" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N52" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O52" s="7"/>
-    </row>
-    <row r="53" spans="1:15" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>45026</v>
+      </c>
+      <c r="O52" s="10"/>
+    </row>
+    <row r="53" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B53" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C53" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>50</v>
@@ -3252,37 +3257,37 @@
         <v>45</v>
       </c>
       <c r="M53" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N53" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O53" s="7"/>
+        <v>45026</v>
+      </c>
+      <c r="O53" s="10"/>
     </row>
     <row r="54" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B54" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C54" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>50</v>
@@ -3297,37 +3302,37 @@
         <v>45</v>
       </c>
       <c r="M54" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N54" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O54" s="7"/>
+        <v>45026</v>
+      </c>
+      <c r="O54" s="10"/>
     </row>
     <row r="55" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B55" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C55" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>50</v>
@@ -3342,37 +3347,37 @@
         <v>45</v>
       </c>
       <c r="M55" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N55" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O55" s="7"/>
+        <v>45026</v>
+      </c>
+      <c r="O55" s="10"/>
     </row>
     <row r="56" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B56" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C56" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I56" s="4" t="s">
         <v>50</v>
@@ -3387,37 +3392,37 @@
         <v>45</v>
       </c>
       <c r="M56" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N56" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O56" s="7"/>
+        <v>45026</v>
+      </c>
+      <c r="O56" s="10"/>
     </row>
     <row r="57" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B57" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C57" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>50</v>
@@ -3432,37 +3437,37 @@
         <v>45</v>
       </c>
       <c r="M57" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N57" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O57" s="7"/>
+        <v>45026</v>
+      </c>
+      <c r="O57" s="10"/>
     </row>
     <row r="58" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B58" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C58" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>50</v>
@@ -3477,37 +3482,37 @@
         <v>45</v>
       </c>
       <c r="M58" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N58" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O58" s="7"/>
-    </row>
-    <row r="59" spans="1:15" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>45026</v>
+      </c>
+      <c r="O58" s="10"/>
+    </row>
+    <row r="59" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B59" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C59" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D59" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E59" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>174</v>
-      </c>
       <c r="G59" s="4" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I59" s="4" t="s">
         <v>50</v>
@@ -3522,37 +3527,37 @@
         <v>45</v>
       </c>
       <c r="M59" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N59" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O59" s="7"/>
-    </row>
-    <row r="60" spans="1:15" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>45026</v>
+      </c>
+      <c r="O59" s="10"/>
+    </row>
+    <row r="60" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B60" s="3">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C60" s="3">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>172</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I60" s="4" t="s">
         <v>50</v>
@@ -3567,12 +3572,12 @@
         <v>45</v>
       </c>
       <c r="M60" s="3">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="N60" s="3">
-        <v>44936</v>
-      </c>
-      <c r="O60" s="7"/>
+        <v>45026</v>
+      </c>
+      <c r="O60" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">
